--- a/KPMG/Benchmark Appraisal/PIID/PAD.xlsx
+++ b/KPMG/Benchmark Appraisal/PIID/PAD.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>PAD</t>
   </si>
@@ -96,15 +96,6 @@
   </si>
   <si>
     <t>QMS contains all relevant process for organization.</t>
-  </si>
-  <si>
-    <t>S:</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Level 2</t>
@@ -185,9 +176,6 @@
     <t>** Minimum 2 and maximum 3 evidences require for each practice</t>
   </si>
   <si>
-    <t>Root cause analysis template was reused from the ISO based global implemntation of 8D CAPA.</t>
-  </si>
-  <si>
     <t>Release note which has deployment steps.</t>
   </si>
   <si>
@@ -197,46 +185,7 @@
     <t>QMS change requirement document maps the changes to the QMS along with the source of input, decision and the size of change.</t>
   </si>
   <si>
-    <t>I: The structure of the QMS and overall process for procedure mapping should be provided for ease of use.</t>
-  </si>
-  <si>
-    <t>I: Work environment standards need to be elaborate and extensive.</t>
-  </si>
-  <si>
-    <t>I: The measurement should be stored such that they can be readily queried, sliced and diced for future use.</t>
-  </si>
-  <si>
     <t>Doc</t>
-  </si>
-  <si>
-    <t>Aff</t>
-  </si>
-  <si>
-    <t>PEG affirms that QMS contains all relevant process for organization.</t>
-  </si>
-  <si>
-    <t>PEG affirms that process templates are developed based on feedback or reused from ISO based global implementation.</t>
-  </si>
-  <si>
-    <t>PEG affirms that QMS improvemens are made in line with SR management provided objectives.</t>
-  </si>
-  <si>
-    <t>PEG affirms that tailoring proposals are collected using Google forms to keep them centralized.</t>
-  </si>
-  <si>
-    <t>PEG affirms that processes and assets are updated regularly on the basis of user feedback, audit findings, project learnings, metrics reports , process appraisals, grapevine and Sr management inputs.</t>
-  </si>
-  <si>
-    <t>PEG affirms (slide 11) that a measurement repository and other project data is made available for use to process users.</t>
-  </si>
-  <si>
-    <t>PEG affirms that generic work environment guidelines are maintained which include basic requirements for execution at org level.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEG affirms that QMS is released </t>
-  </si>
-  <si>
-    <t>FM</t>
   </si>
   <si>
     <t>ORG_Einframe</t>
@@ -273,6 +222,78 @@
   </si>
   <si>
     <t>In Einframe tool task template for typical Project Plan</t>
+  </si>
+  <si>
+    <t>Benefits of Einframe shared with SM before implementation.</t>
+  </si>
+  <si>
+    <t>ORG_Einframe_Mail</t>
+  </si>
+  <si>
+    <t>ORG_Einframe_Invoices</t>
+  </si>
+  <si>
+    <t>CM procedure where Folder structure for Processes and Projects repository mentioned</t>
+  </si>
+  <si>
+    <t>ORG_CM_Procedure</t>
+  </si>
+  <si>
+    <t>QMS contains Policy, all relevant process for organization.</t>
+  </si>
+  <si>
+    <t>Einframe tool for Project management, Incident management, Training management, incident learnings.</t>
+  </si>
+  <si>
+    <t>ORG_HDWLIB</t>
+  </si>
+  <si>
+    <t>Hardware design library to store new hardware design, which can be as reference or reuse in other projects.</t>
+  </si>
+  <si>
+    <t>Firmware design library to store new hardware design, which can be as reference or reuse in other projects.</t>
+  </si>
+  <si>
+    <t>Mechanical design library to store new hardware design, which can be as reference or reuse in other projects.</t>
+  </si>
+  <si>
+    <t>ORG_MCHLIB</t>
+  </si>
+  <si>
+    <t>ORG_FRWLIB</t>
+  </si>
+  <si>
+    <t>ORG_FRWSTD</t>
+  </si>
+  <si>
+    <t>ORG_PERREV</t>
+  </si>
+  <si>
+    <t>Firmware (C coiding standards) guidelines help to practioners during coding.</t>
+  </si>
+  <si>
+    <t>guidelines including best practices help to practioners during code review.</t>
+  </si>
+  <si>
+    <t>ORG_Einframe_User_Guide</t>
+  </si>
+  <si>
+    <t>Getting Started and Project Management using Einframe guide.</t>
+  </si>
+  <si>
+    <t>ORG_EVMS_Overview</t>
+  </si>
+  <si>
+    <t>Guide blog on EVMS overview.</t>
+  </si>
+  <si>
+    <t>Einframe Training and understanding sessions.</t>
+  </si>
+  <si>
+    <t>ORG_Einframe_Understanding</t>
+  </si>
+  <si>
+    <t>Guide blog on EVMS overview.to understand the EVMS chart for measurement schedule and cost variances.</t>
   </si>
 </sst>
 </file>
@@ -683,22 +704,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -708,6 +714,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,10 +731,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,7 +756,77 @@
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1197,7 +1288,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1215,14 +1306,14 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4:B18"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="25.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
@@ -1230,25 +1321,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1295,13 +1386,13 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="55">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="63" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="5" t="str">
@@ -1315,18 +1406,14 @@
         <v>17</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="9" t="str">
         <f>IF(MID(H4,2,1)=":",LEFT(H4,1),"-")</f>
-        <v>S</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>19</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="J4" s="9"/>
       <c r="K4" s="8" t="str">
         <f>IF(COUNTIFS($E4,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
         <v>X</v>
@@ -1339,39 +1426,35 @@
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="67"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="54"/>
     </row>
     <row r="5" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="57"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="5" t="str">
         <f t="shared" ref="D5:D69" si="1">IF(LEN(E5)&gt;5,IF(LEN(K5&amp;L5&amp;M5)&gt;=1,"OK","Check"),"-")</f>
         <v>OK</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="9" t="str">
         <f t="shared" ref="I5:I69" si="2">IF(MID(H5,2,1)=":",LEFT(H5,1),"-")</f>
         <v>-</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="J5" s="9"/>
       <c r="K5" s="8" t="str">
         <f t="shared" ref="K5:M69" si="3">IF(COUNTIFS($E5,"*"&amp;K$3&amp;"*")&gt;=1,"X","")</f>
         <v>X</v>
@@ -1387,24 +1470,20 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="67"/>
-    </row>
-    <row r="6" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="57"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="54"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1426,13 +1505,13 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="67"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="54"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="57"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1461,13 +1540,13 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="67"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="54"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="57"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1496,13 +1575,13 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="67"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="54"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="57"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1531,13 +1610,13 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="67"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="54"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="57"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1566,13 +1645,13 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="67"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="54"/>
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="57"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1601,13 +1680,13 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="67"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="54"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="57"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1636,13 +1715,13 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="67"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="54"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="57"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1671,13 +1750,13 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="67"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="54"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="57"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1706,13 +1785,13 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="67"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="54"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="57"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1741,13 +1820,13 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="67"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="54"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="57"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1776,13 +1855,13 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="67"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="54"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1811,13 +1890,13 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="67"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="54"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="57"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1846,18 +1925,18 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="67"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="54"/>
     </row>
     <row r="19" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="60">
+      <c r="A19" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="55">
         <v>2.1</v>
       </c>
-      <c r="C19" s="59" t="s">
-        <v>22</v>
+      <c r="C19" s="58" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1870,14 +1949,12 @@
         <v>17</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="8" t="str">
@@ -1892,35 +1969,31 @@
         <f t="shared" si="0"/>
         <v>X</v>
       </c>
-      <c r="N19" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="67"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="54"/>
     </row>
     <row r="20" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="59"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="8" t="str">
         <f t="shared" si="3"/>
@@ -1937,52 +2010,49 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="67"/>
-    </row>
-    <row r="21" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="59"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="54"/>
+    </row>
+    <row r="21" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="54"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="E21" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
+      <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L21" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M21" s="8" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="67"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="54"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="59"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -1991,10 +2061,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
+      <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2011,13 +2078,13 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="67"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="54"/>
     </row>
     <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="59"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2026,10 +2093,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
+      <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2046,13 +2110,13 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="67"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="54"/>
     </row>
     <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="59"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2061,10 +2125,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
+      <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2081,13 +2142,13 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="67"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="54"/>
     </row>
     <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="59"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2096,9 +2157,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2115,13 +2174,13 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="67"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="54"/>
     </row>
     <row r="26" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="59"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2150,13 +2209,13 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="67"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="54"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="59"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2185,13 +2244,13 @@
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="67"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="54"/>
     </row>
     <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="59"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2220,13 +2279,13 @@
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="67"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="54"/>
     </row>
     <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="59"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2255,13 +2314,13 @@
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="67"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="54"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="59"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2290,13 +2349,13 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="67"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="54"/>
     </row>
     <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="67"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="59"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2325,13 +2384,13 @@
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="67"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="54"/>
     </row>
     <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="59"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2360,13 +2419,13 @@
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="67"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="54"/>
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="59"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2395,16 +2454,16 @@
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="67"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="54"/>
     </row>
     <row r="34" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
-      <c r="B34" s="60">
+      <c r="A34" s="54"/>
+      <c r="B34" s="55">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C34" s="59" t="s">
-        <v>24</v>
+      <c r="C34" s="58" t="s">
+        <v>21</v>
       </c>
       <c r="D34" s="5" t="str">
         <f t="shared" ref="D34:D35" si="4">IF(LEN(E34)&gt;5,IF(LEN(K34&amp;L34&amp;M34)&gt;=1,"OK","Check"),"-")</f>
@@ -2417,7 +2476,7 @@
         <v>17</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="9" t="str">
@@ -2437,30 +2496,28 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="N34" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="67"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="54"/>
     </row>
     <row r="35" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="59"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="5" t="str">
         <f t="shared" si="4"/>
         <v>OK</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="9" t="str">
@@ -2483,30 +2540,24 @@
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="67"/>
-    </row>
-    <row r="36" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="59"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="54"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="8" t="str">
@@ -2524,24 +2575,20 @@
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="67"/>
-    </row>
-    <row r="37" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="59"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="54"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="54"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="5"/>
       <c r="I37" s="9" t="str">
         <f t="shared" si="2"/>
@@ -2563,13 +2610,13 @@
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="67"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="54"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="59"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2598,13 +2645,13 @@
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="67"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="54"/>
     </row>
     <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="59"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2633,13 +2680,13 @@
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="67"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="54"/>
     </row>
     <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="59"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2668,13 +2715,13 @@
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="67"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="54"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="59"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2703,13 +2750,13 @@
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="67"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="54"/>
     </row>
     <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="59"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2738,13 +2785,13 @@
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="67"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="54"/>
     </row>
     <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="59"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2773,13 +2820,13 @@
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="61"/>
-      <c r="R43" s="67"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="54"/>
     </row>
     <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2808,13 +2855,13 @@
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="67"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="54"/>
     </row>
     <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
-      <c r="B45" s="61"/>
-      <c r="C45" s="59"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="58"/>
       <c r="D45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2843,13 +2890,13 @@
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="61"/>
-      <c r="R45" s="67"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="54"/>
     </row>
     <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="59"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2878,13 +2925,13 @@
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="67"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="54"/>
     </row>
     <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="59"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2913,13 +2960,13 @@
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="67"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="54"/>
     </row>
     <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="59"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="58"/>
       <c r="D48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -2948,16 +2995,16 @@
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="67"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="54"/>
     </row>
     <row r="49" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="60">
+      <c r="A49" s="54"/>
+      <c r="B49" s="55">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C49" s="59" t="s">
-        <v>25</v>
+      <c r="C49" s="58" t="s">
+        <v>22</v>
       </c>
       <c r="D49" s="5" t="str">
         <f t="shared" si="1"/>
@@ -2970,14 +3017,12 @@
         <v>17</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H49" s="5"/>
       <c r="I49" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="8" t="str">
@@ -2992,30 +3037,28 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="N49" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="67"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="54"/>
     </row>
     <row r="50" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="59"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="9" t="str">
@@ -3038,25 +3081,25 @@
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="67"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="54"/>
     </row>
     <row r="51" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="59"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="9" t="str">
@@ -3079,25 +3122,25 @@
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="67"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="54"/>
     </row>
     <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="59"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="9" t="str">
@@ -3120,53 +3163,52 @@
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="67"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="54"/>
     </row>
     <row r="53" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="59"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="58"/>
       <c r="D53" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>Check</v>
+        <v>OK</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="8"/>
+      <c r="K53" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>X</v>
+      </c>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="67"/>
-    </row>
-    <row r="54" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="59"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="54"/>
+    </row>
+    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="54"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="11"/>
       <c r="H54" s="8"/>
       <c r="I54" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3188,13 +3230,13 @@
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="67"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="54"/>
     </row>
     <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="59"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3223,13 +3265,13 @@
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="67"/>
+      <c r="Q55" s="56"/>
+      <c r="R55" s="54"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="59"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3258,13 +3300,13 @@
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="67"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="54"/>
     </row>
     <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="59"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3293,13 +3335,13 @@
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="67"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="54"/>
     </row>
     <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="59"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="58"/>
       <c r="D58" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3328,13 +3370,13 @@
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="61"/>
-      <c r="R58" s="67"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="54"/>
     </row>
     <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="59"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="58"/>
       <c r="D59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3363,13 +3405,13 @@
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="67"/>
+      <c r="Q59" s="56"/>
+      <c r="R59" s="54"/>
     </row>
     <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="59"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="58"/>
       <c r="D60" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3398,13 +3440,13 @@
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="67"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="54"/>
     </row>
     <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="59"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="58"/>
       <c r="D61" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3433,13 +3475,13 @@
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="67"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="54"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="59"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="58"/>
       <c r="D62" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3468,13 +3510,13 @@
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
-      <c r="Q62" s="61"/>
-      <c r="R62" s="67"/>
+      <c r="Q62" s="56"/>
+      <c r="R62" s="54"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="59"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="58"/>
       <c r="D63" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3503,13 +3545,13 @@
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="61"/>
-      <c r="R63" s="67"/>
+      <c r="Q63" s="56"/>
+      <c r="R63" s="54"/>
     </row>
     <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="59"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="58"/>
       <c r="D64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3538,38 +3580,36 @@
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="67"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="54"/>
     </row>
     <row r="65" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" s="60">
+      <c r="A65" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="55">
         <v>3.1</v>
       </c>
-      <c r="C65" s="59" t="s">
-        <v>27</v>
+      <c r="C65" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="D65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H65" s="5"/>
       <c r="I65" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="8" t="str">
@@ -3584,30 +3624,28 @@
         <f t="shared" si="3"/>
         <v>X</v>
       </c>
-      <c r="N65" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="N65" s="11"/>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
-      <c r="Q65" s="60"/>
-      <c r="R65" s="67"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="54"/>
     </row>
     <row r="66" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="67"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="59"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="58"/>
       <c r="D66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>OK</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="9" t="str">
@@ -3630,24 +3668,20 @@
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
-      <c r="Q66" s="61"/>
-      <c r="R66" s="67"/>
-    </row>
-    <row r="67" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="59"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="54"/>
+    </row>
+    <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="58"/>
       <c r="D67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
       <c r="E67" s="10"/>
-      <c r="F67" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="9" t="str">
         <f t="shared" si="2"/>
@@ -3669,13 +3703,13 @@
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="67"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="54"/>
     </row>
     <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="67"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="59"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="58"/>
       <c r="D68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3704,13 +3738,13 @@
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
-      <c r="Q68" s="61"/>
-      <c r="R68" s="67"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="54"/>
     </row>
     <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="59"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="58"/>
       <c r="D69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
@@ -3739,13 +3773,13 @@
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="61"/>
-      <c r="R69" s="67"/>
+      <c r="Q69" s="56"/>
+      <c r="R69" s="54"/>
     </row>
     <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="59"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="58"/>
       <c r="D70" s="5" t="str">
         <f t="shared" ref="D70:D136" si="5">IF(LEN(E70)&gt;5,IF(LEN(K70&amp;L70&amp;M70)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -3774,13 +3808,13 @@
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
-      <c r="Q70" s="61"/>
-      <c r="R70" s="67"/>
+      <c r="Q70" s="56"/>
+      <c r="R70" s="54"/>
     </row>
     <row r="71" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="59"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="58"/>
       <c r="D71" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3809,13 +3843,13 @@
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
-      <c r="Q71" s="61"/>
-      <c r="R71" s="67"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="54"/>
     </row>
     <row r="72" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="59"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="58"/>
       <c r="D72" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3844,13 +3878,13 @@
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
-      <c r="Q72" s="61"/>
-      <c r="R72" s="67"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="54"/>
     </row>
     <row r="73" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="59"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="58"/>
       <c r="D73" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3879,13 +3913,13 @@
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="67"/>
+      <c r="Q73" s="56"/>
+      <c r="R73" s="54"/>
     </row>
     <row r="74" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="59"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="58"/>
       <c r="D74" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3914,13 +3948,13 @@
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="67"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="54"/>
     </row>
     <row r="75" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="59"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="58"/>
       <c r="D75" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3949,13 +3983,13 @@
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
-      <c r="Q75" s="61"/>
-      <c r="R75" s="67"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="54"/>
     </row>
     <row r="76" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="59"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="58"/>
       <c r="D76" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -3984,13 +4018,13 @@
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
-      <c r="Q76" s="61"/>
-      <c r="R76" s="67"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="54"/>
     </row>
     <row r="77" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="59"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="58"/>
       <c r="D77" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4019,13 +4053,13 @@
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
-      <c r="Q77" s="61"/>
-      <c r="R77" s="67"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="54"/>
     </row>
     <row r="78" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="59"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="58"/>
       <c r="D78" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4054,13 +4088,13 @@
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
-      <c r="Q78" s="61"/>
-      <c r="R78" s="67"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="54"/>
     </row>
     <row r="79" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="59"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="58"/>
       <c r="D79" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4089,36 +4123,34 @@
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
-      <c r="Q79" s="62"/>
-      <c r="R79" s="67"/>
-    </row>
-    <row r="80" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
-      <c r="B80" s="60">
+      <c r="Q79" s="57"/>
+      <c r="R79" s="54"/>
+    </row>
+    <row r="80" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="54"/>
+      <c r="B80" s="55">
         <v>3.2</v>
       </c>
-      <c r="C80" s="59" t="s">
-        <v>30</v>
+      <c r="C80" s="58" t="s">
+        <v>27</v>
       </c>
       <c r="D80" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H80" s="5"/>
       <c r="I80" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>I</v>
+        <v>-</v>
       </c>
       <c r="J80" s="9"/>
       <c r="K80" s="8" t="str">
@@ -4133,86 +4165,98 @@
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="N80" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="N80" s="11"/>
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
-      <c r="Q80" s="60"/>
-      <c r="R80" s="67"/>
+      <c r="Q80" s="55"/>
+      <c r="R80" s="54"/>
     </row>
     <row r="81" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="59"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="58"/>
       <c r="D81" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Check</v>
+        <v>OK</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H81" s="5"/>
-      <c r="I81" s="9"/>
+      <c r="I81" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
       <c r="J81" s="9"/>
-      <c r="K81" s="8"/>
+      <c r="K81" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
-      <c r="Q81" s="61"/>
-      <c r="R81" s="67"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="54"/>
     </row>
     <row r="82" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="67"/>
-      <c r="B82" s="61"/>
-      <c r="C82" s="59"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="58"/>
       <c r="D82" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Check</v>
+        <v>OK</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H82" s="5"/>
-      <c r="I82" s="9"/>
+      <c r="I82" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
       <c r="J82" s="9"/>
-      <c r="K82" s="8"/>
+      <c r="K82" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
-      <c r="Q82" s="61"/>
-      <c r="R82" s="67"/>
-    </row>
-    <row r="83" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A83" s="67"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="59"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="54"/>
+    </row>
+    <row r="83" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="54"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="58"/>
       <c r="D83" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="E83" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="F83" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="9" t="str">
@@ -4222,26 +4266,26 @@
       <c r="J83" s="9"/>
       <c r="K83" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L83" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M83" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
-      <c r="Q83" s="61"/>
-      <c r="R83" s="67"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="54"/>
     </row>
     <row r="84" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="59"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="58"/>
       <c r="D84" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4270,13 +4314,13 @@
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
-      <c r="Q84" s="61"/>
-      <c r="R84" s="67"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="54"/>
     </row>
     <row r="85" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
-      <c r="B85" s="61"/>
-      <c r="C85" s="59"/>
+      <c r="A85" s="54"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="58"/>
       <c r="D85" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4305,13 +4349,13 @@
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
-      <c r="Q85" s="61"/>
-      <c r="R85" s="67"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="54"/>
     </row>
     <row r="86" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="59"/>
+      <c r="A86" s="54"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="58"/>
       <c r="D86" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4340,13 +4384,13 @@
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
-      <c r="Q86" s="61"/>
-      <c r="R86" s="67"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="54"/>
     </row>
     <row r="87" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
-      <c r="B87" s="61"/>
-      <c r="C87" s="59"/>
+      <c r="A87" s="54"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="58"/>
       <c r="D87" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4375,13 +4419,13 @@
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
-      <c r="Q87" s="61"/>
-      <c r="R87" s="67"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="54"/>
     </row>
     <row r="88" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="67"/>
-      <c r="B88" s="61"/>
-      <c r="C88" s="59"/>
+      <c r="A88" s="54"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="58"/>
       <c r="D88" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4410,13 +4454,13 @@
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
-      <c r="Q88" s="61"/>
-      <c r="R88" s="67"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="54"/>
     </row>
     <row r="89" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="67"/>
-      <c r="B89" s="61"/>
-      <c r="C89" s="59"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="58"/>
       <c r="D89" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4445,13 +4489,13 @@
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
-      <c r="Q89" s="61"/>
-      <c r="R89" s="67"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="54"/>
     </row>
     <row r="90" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
-      <c r="B90" s="61"/>
-      <c r="C90" s="59"/>
+      <c r="A90" s="54"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="58"/>
       <c r="D90" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4480,13 +4524,13 @@
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
-      <c r="Q90" s="61"/>
-      <c r="R90" s="67"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="54"/>
     </row>
     <row r="91" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="67"/>
-      <c r="B91" s="61"/>
-      <c r="C91" s="59"/>
+      <c r="A91" s="54"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="58"/>
       <c r="D91" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4515,13 +4559,13 @@
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
-      <c r="Q91" s="61"/>
-      <c r="R91" s="67"/>
+      <c r="Q91" s="56"/>
+      <c r="R91" s="54"/>
     </row>
     <row r="92" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="67"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="59"/>
+      <c r="A92" s="54"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="58"/>
       <c r="D92" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4550,13 +4594,13 @@
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
-      <c r="Q92" s="61"/>
-      <c r="R92" s="67"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="54"/>
     </row>
     <row r="93" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="67"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="59"/>
+      <c r="A93" s="54"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="58"/>
       <c r="D93" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4585,13 +4629,13 @@
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
-      <c r="Q93" s="61"/>
-      <c r="R93" s="67"/>
+      <c r="Q93" s="56"/>
+      <c r="R93" s="54"/>
     </row>
     <row r="94" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="67"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="59"/>
+      <c r="A94" s="54"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="58"/>
       <c r="D94" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4620,13 +4664,13 @@
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
-      <c r="Q94" s="61"/>
-      <c r="R94" s="67"/>
+      <c r="Q94" s="56"/>
+      <c r="R94" s="54"/>
     </row>
     <row r="95" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="67"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="59"/>
+      <c r="A95" s="54"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="58"/>
       <c r="D95" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4655,13 +4699,13 @@
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
-      <c r="Q95" s="61"/>
-      <c r="R95" s="67"/>
+      <c r="Q95" s="56"/>
+      <c r="R95" s="54"/>
     </row>
     <row r="96" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="67"/>
-      <c r="B96" s="62"/>
-      <c r="C96" s="59"/>
+      <c r="A96" s="54"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="58"/>
       <c r="D96" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4690,36 +4734,34 @@
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
-      <c r="Q96" s="62"/>
-      <c r="R96" s="67"/>
+      <c r="Q96" s="57"/>
+      <c r="R96" s="54"/>
     </row>
     <row r="97" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="67"/>
-      <c r="B97" s="54">
+      <c r="A97" s="54"/>
+      <c r="B97" s="65">
         <v>3.3</v>
       </c>
-      <c r="C97" s="57" t="s">
-        <v>33</v>
+      <c r="C97" s="64" t="s">
+        <v>30</v>
       </c>
       <c r="D97" s="13" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H97" s="8"/>
       <c r="I97" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J97" s="9"/>
       <c r="K97" s="8" t="str">
@@ -4734,30 +4776,28 @@
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="N97" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="N97" s="11"/>
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
-      <c r="Q97" s="54"/>
-      <c r="R97" s="58"/>
+      <c r="Q97" s="65"/>
+      <c r="R97" s="68"/>
     </row>
     <row r="98" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="67"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="57"/>
+      <c r="A98" s="54"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="64"/>
       <c r="D98" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="9" t="str">
@@ -4780,24 +4820,20 @@
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
-      <c r="Q98" s="55"/>
-      <c r="R98" s="58"/>
-    </row>
-    <row r="99" spans="1:18" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="57"/>
+      <c r="Q98" s="66"/>
+      <c r="R98" s="68"/>
+    </row>
+    <row r="99" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="54"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="64"/>
       <c r="D99" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E99" s="10"/>
-      <c r="F99" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="F99" s="14"/>
+      <c r="G99" s="11"/>
       <c r="H99" s="8"/>
       <c r="I99" s="9" t="str">
         <f t="shared" si="6"/>
@@ -4819,13 +4855,13 @@
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
-      <c r="Q99" s="55"/>
-      <c r="R99" s="58"/>
+      <c r="Q99" s="66"/>
+      <c r="R99" s="68"/>
     </row>
     <row r="100" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="57"/>
+      <c r="A100" s="54"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="64"/>
       <c r="D100" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4854,13 +4890,13 @@
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
       <c r="P100" s="11"/>
-      <c r="Q100" s="55"/>
-      <c r="R100" s="58"/>
+      <c r="Q100" s="66"/>
+      <c r="R100" s="68"/>
     </row>
     <row r="101" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="57"/>
+      <c r="A101" s="54"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="64"/>
       <c r="D101" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4889,13 +4925,13 @@
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
-      <c r="Q101" s="55"/>
-      <c r="R101" s="58"/>
+      <c r="Q101" s="66"/>
+      <c r="R101" s="68"/>
     </row>
     <row r="102" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="57"/>
+      <c r="A102" s="54"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="64"/>
       <c r="D102" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4924,13 +4960,13 @@
       <c r="N102" s="11"/>
       <c r="O102" s="11"/>
       <c r="P102" s="11"/>
-      <c r="Q102" s="55"/>
-      <c r="R102" s="58"/>
+      <c r="Q102" s="66"/>
+      <c r="R102" s="68"/>
     </row>
     <row r="103" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="57"/>
+      <c r="A103" s="54"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="64"/>
       <c r="D103" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4959,13 +4995,13 @@
       <c r="N103" s="11"/>
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
-      <c r="Q103" s="55"/>
-      <c r="R103" s="58"/>
+      <c r="Q103" s="66"/>
+      <c r="R103" s="68"/>
     </row>
     <row r="104" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="67"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="57"/>
+      <c r="A104" s="54"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="64"/>
       <c r="D104" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -4994,13 +5030,13 @@
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
-      <c r="Q104" s="55"/>
-      <c r="R104" s="58"/>
+      <c r="Q104" s="66"/>
+      <c r="R104" s="68"/>
     </row>
     <row r="105" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="57"/>
+      <c r="A105" s="54"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="64"/>
       <c r="D105" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5029,13 +5065,13 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
-      <c r="Q105" s="55"/>
-      <c r="R105" s="58"/>
+      <c r="Q105" s="66"/>
+      <c r="R105" s="68"/>
     </row>
     <row r="106" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="67"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="57"/>
+      <c r="A106" s="54"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="64"/>
       <c r="D106" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5064,13 +5100,13 @@
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
       <c r="P106" s="11"/>
-      <c r="Q106" s="55"/>
-      <c r="R106" s="58"/>
+      <c r="Q106" s="66"/>
+      <c r="R106" s="68"/>
     </row>
     <row r="107" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="67"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="57"/>
+      <c r="A107" s="54"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="64"/>
       <c r="D107" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5099,13 +5135,13 @@
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
       <c r="P107" s="11"/>
-      <c r="Q107" s="55"/>
-      <c r="R107" s="58"/>
+      <c r="Q107" s="66"/>
+      <c r="R107" s="68"/>
     </row>
     <row r="108" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="67"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="57"/>
+      <c r="A108" s="54"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="64"/>
       <c r="D108" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5134,13 +5170,13 @@
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
       <c r="P108" s="11"/>
-      <c r="Q108" s="55"/>
-      <c r="R108" s="58"/>
+      <c r="Q108" s="66"/>
+      <c r="R108" s="68"/>
     </row>
     <row r="109" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="67"/>
-      <c r="B109" s="55"/>
-      <c r="C109" s="57"/>
+      <c r="A109" s="54"/>
+      <c r="B109" s="66"/>
+      <c r="C109" s="64"/>
       <c r="D109" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5169,13 +5205,13 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
-      <c r="Q109" s="55"/>
-      <c r="R109" s="58"/>
+      <c r="Q109" s="66"/>
+      <c r="R109" s="68"/>
     </row>
     <row r="110" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="57"/>
+      <c r="A110" s="54"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="64"/>
       <c r="D110" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5204,13 +5240,13 @@
       <c r="N110" s="11"/>
       <c r="O110" s="11"/>
       <c r="P110" s="11"/>
-      <c r="Q110" s="55"/>
-      <c r="R110" s="58"/>
+      <c r="Q110" s="66"/>
+      <c r="R110" s="68"/>
     </row>
     <row r="111" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
-      <c r="B111" s="56"/>
-      <c r="C111" s="57"/>
+      <c r="A111" s="54"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="64"/>
       <c r="D111" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5239,36 +5275,34 @@
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
-      <c r="Q111" s="56"/>
-      <c r="R111" s="58"/>
+      <c r="Q111" s="67"/>
+      <c r="R111" s="68"/>
     </row>
     <row r="112" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
-      <c r="B112" s="54">
+      <c r="A112" s="54"/>
+      <c r="B112" s="65">
         <v>3.4</v>
       </c>
-      <c r="C112" s="59" t="s">
-        <v>36</v>
+      <c r="C112" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="D112" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H112" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H112" s="8"/>
       <c r="I112" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J112" s="9"/>
       <c r="K112" s="8" t="str">
@@ -5283,30 +5317,28 @@
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="N112" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="N112" s="11"/>
       <c r="O112" s="11"/>
       <c r="P112" s="11"/>
-      <c r="Q112" s="54"/>
-      <c r="R112" s="58"/>
+      <c r="Q112" s="65"/>
+      <c r="R112" s="68"/>
     </row>
     <row r="113" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
-      <c r="B113" s="55"/>
-      <c r="C113" s="59"/>
+      <c r="A113" s="54"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="58"/>
       <c r="D113" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9" t="str">
@@ -5329,24 +5361,20 @@
       <c r="N113" s="11"/>
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
-      <c r="Q113" s="55"/>
-      <c r="R113" s="58"/>
-    </row>
-    <row r="114" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A114" s="67"/>
-      <c r="B114" s="55"/>
-      <c r="C114" s="59"/>
+      <c r="Q113" s="66"/>
+      <c r="R113" s="68"/>
+    </row>
+    <row r="114" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="54"/>
+      <c r="B114" s="66"/>
+      <c r="C114" s="58"/>
       <c r="D114" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
       <c r="E114" s="10"/>
-      <c r="F114" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="F114" s="7"/>
+      <c r="G114" s="11"/>
       <c r="H114" s="8"/>
       <c r="I114" s="9" t="str">
         <f t="shared" si="6"/>
@@ -5368,13 +5396,13 @@
       <c r="N114" s="11"/>
       <c r="O114" s="11"/>
       <c r="P114" s="11"/>
-      <c r="Q114" s="55"/>
-      <c r="R114" s="58"/>
+      <c r="Q114" s="66"/>
+      <c r="R114" s="68"/>
     </row>
     <row r="115" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="67"/>
-      <c r="B115" s="55"/>
-      <c r="C115" s="59"/>
+      <c r="A115" s="54"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="58"/>
       <c r="D115" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5403,13 +5431,13 @@
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
       <c r="P115" s="11"/>
-      <c r="Q115" s="55"/>
-      <c r="R115" s="58"/>
+      <c r="Q115" s="66"/>
+      <c r="R115" s="68"/>
     </row>
     <row r="116" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="67"/>
-      <c r="B116" s="55"/>
-      <c r="C116" s="59"/>
+      <c r="A116" s="54"/>
+      <c r="B116" s="66"/>
+      <c r="C116" s="58"/>
       <c r="D116" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5438,13 +5466,13 @@
       <c r="N116" s="11"/>
       <c r="O116" s="11"/>
       <c r="P116" s="11"/>
-      <c r="Q116" s="55"/>
-      <c r="R116" s="58"/>
+      <c r="Q116" s="66"/>
+      <c r="R116" s="68"/>
     </row>
     <row r="117" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="67"/>
-      <c r="B117" s="55"/>
-      <c r="C117" s="59"/>
+      <c r="A117" s="54"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="58"/>
       <c r="D117" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5473,13 +5501,13 @@
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
-      <c r="Q117" s="55"/>
-      <c r="R117" s="58"/>
+      <c r="Q117" s="66"/>
+      <c r="R117" s="68"/>
     </row>
     <row r="118" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="67"/>
-      <c r="B118" s="55"/>
-      <c r="C118" s="59"/>
+      <c r="A118" s="54"/>
+      <c r="B118" s="66"/>
+      <c r="C118" s="58"/>
       <c r="D118" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5508,13 +5536,13 @@
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
       <c r="P118" s="11"/>
-      <c r="Q118" s="55"/>
-      <c r="R118" s="58"/>
+      <c r="Q118" s="66"/>
+      <c r="R118" s="68"/>
     </row>
     <row r="119" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="67"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="59"/>
+      <c r="A119" s="54"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="58"/>
       <c r="D119" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5543,13 +5571,13 @@
       <c r="N119" s="11"/>
       <c r="O119" s="11"/>
       <c r="P119" s="11"/>
-      <c r="Q119" s="55"/>
-      <c r="R119" s="58"/>
+      <c r="Q119" s="66"/>
+      <c r="R119" s="68"/>
     </row>
     <row r="120" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="67"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="59"/>
+      <c r="A120" s="54"/>
+      <c r="B120" s="66"/>
+      <c r="C120" s="58"/>
       <c r="D120" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5578,13 +5606,13 @@
       <c r="N120" s="11"/>
       <c r="O120" s="11"/>
       <c r="P120" s="11"/>
-      <c r="Q120" s="55"/>
-      <c r="R120" s="58"/>
+      <c r="Q120" s="66"/>
+      <c r="R120" s="68"/>
     </row>
     <row r="121" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="67"/>
-      <c r="B121" s="55"/>
-      <c r="C121" s="59"/>
+      <c r="A121" s="54"/>
+      <c r="B121" s="66"/>
+      <c r="C121" s="58"/>
       <c r="D121" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5613,13 +5641,13 @@
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
-      <c r="Q121" s="55"/>
-      <c r="R121" s="58"/>
+      <c r="Q121" s="66"/>
+      <c r="R121" s="68"/>
     </row>
     <row r="122" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="67"/>
-      <c r="B122" s="55"/>
-      <c r="C122" s="59"/>
+      <c r="A122" s="54"/>
+      <c r="B122" s="66"/>
+      <c r="C122" s="58"/>
       <c r="D122" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5648,13 +5676,13 @@
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
       <c r="P122" s="11"/>
-      <c r="Q122" s="55"/>
-      <c r="R122" s="58"/>
+      <c r="Q122" s="66"/>
+      <c r="R122" s="68"/>
     </row>
     <row r="123" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="67"/>
-      <c r="B123" s="55"/>
-      <c r="C123" s="59"/>
+      <c r="A123" s="54"/>
+      <c r="B123" s="66"/>
+      <c r="C123" s="58"/>
       <c r="D123" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5683,13 +5711,13 @@
       <c r="N123" s="11"/>
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
-      <c r="Q123" s="55"/>
-      <c r="R123" s="58"/>
+      <c r="Q123" s="66"/>
+      <c r="R123" s="68"/>
     </row>
     <row r="124" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="67"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="59"/>
+      <c r="A124" s="54"/>
+      <c r="B124" s="66"/>
+      <c r="C124" s="58"/>
       <c r="D124" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5718,13 +5746,13 @@
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
       <c r="P124" s="11"/>
-      <c r="Q124" s="55"/>
-      <c r="R124" s="58"/>
+      <c r="Q124" s="66"/>
+      <c r="R124" s="68"/>
     </row>
     <row r="125" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
-      <c r="B125" s="55"/>
-      <c r="C125" s="59"/>
+      <c r="A125" s="54"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="58"/>
       <c r="D125" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5753,13 +5781,13 @@
       <c r="N125" s="11"/>
       <c r="O125" s="11"/>
       <c r="P125" s="11"/>
-      <c r="Q125" s="55"/>
-      <c r="R125" s="58"/>
+      <c r="Q125" s="66"/>
+      <c r="R125" s="68"/>
     </row>
     <row r="126" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="67"/>
-      <c r="B126" s="56"/>
-      <c r="C126" s="59"/>
+      <c r="A126" s="54"/>
+      <c r="B126" s="67"/>
+      <c r="C126" s="58"/>
       <c r="D126" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -5788,36 +5816,34 @@
       <c r="N126" s="11"/>
       <c r="O126" s="11"/>
       <c r="P126" s="11"/>
-      <c r="Q126" s="56"/>
-      <c r="R126" s="58"/>
+      <c r="Q126" s="67"/>
+      <c r="R126" s="68"/>
     </row>
     <row r="127" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A127" s="67"/>
-      <c r="B127" s="54">
+      <c r="A127" s="54"/>
+      <c r="B127" s="65">
         <v>3.5</v>
       </c>
-      <c r="C127" s="59" t="s">
-        <v>39</v>
+      <c r="C127" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="D127" s="5" t="str">
         <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H127" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H127" s="8"/>
       <c r="I127" s="9" t="str">
         <f t="shared" si="6"/>
-        <v>S</v>
+        <v>-</v>
       </c>
       <c r="J127" s="9"/>
       <c r="K127" s="8" t="str">
@@ -5832,55 +5858,63 @@
         <f t="shared" si="7"/>
         <v>X</v>
       </c>
-      <c r="N127" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="N127" s="11"/>
       <c r="O127" s="11"/>
       <c r="P127" s="11"/>
-      <c r="Q127" s="54"/>
-      <c r="R127" s="58"/>
+      <c r="Q127" s="65"/>
+      <c r="R127" s="68"/>
     </row>
     <row r="128" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="67"/>
-      <c r="B128" s="55"/>
-      <c r="C128" s="59"/>
+      <c r="A128" s="54"/>
+      <c r="B128" s="66"/>
+      <c r="C128" s="58"/>
       <c r="D128" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>Check</v>
+        <v>OK</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="H128" s="8"/>
-      <c r="I128" s="9"/>
+      <c r="I128" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
       <c r="J128" s="9"/>
-      <c r="K128" s="8"/>
+      <c r="K128" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>X</v>
+      </c>
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
       <c r="N128" s="11"/>
       <c r="O128" s="11"/>
       <c r="P128" s="11"/>
-      <c r="Q128" s="55"/>
-      <c r="R128" s="58"/>
-    </row>
-    <row r="129" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="67"/>
-      <c r="B129" s="55"/>
-      <c r="C129" s="59"/>
+      <c r="Q128" s="66"/>
+      <c r="R128" s="68"/>
+    </row>
+    <row r="129" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A129" s="54"/>
+      <c r="B129" s="66"/>
+      <c r="C129" s="58"/>
       <c r="D129" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="E129" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="F129" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="9" t="str">
@@ -5890,33 +5924,39 @@
       <c r="J129" s="9"/>
       <c r="K129" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L129" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M129" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N129" s="11"/>
       <c r="O129" s="11"/>
       <c r="P129" s="11"/>
-      <c r="Q129" s="55"/>
-      <c r="R129" s="58"/>
-    </row>
-    <row r="130" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="67"/>
-      <c r="B130" s="55"/>
-      <c r="C130" s="59"/>
+      <c r="Q129" s="66"/>
+      <c r="R129" s="68"/>
+    </row>
+    <row r="130" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A130" s="54"/>
+      <c r="B130" s="66"/>
+      <c r="C130" s="58"/>
       <c r="D130" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="E130" s="10"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="11"/>
+        <v>OK</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="H130" s="8"/>
       <c r="I130" s="9" t="str">
         <f t="shared" si="6"/>
@@ -5925,33 +5965,39 @@
       <c r="J130" s="9"/>
       <c r="K130" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L130" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M130" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N130" s="11"/>
       <c r="O130" s="11"/>
       <c r="P130" s="11"/>
-      <c r="Q130" s="55"/>
-      <c r="R130" s="58"/>
-    </row>
-    <row r="131" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="67"/>
-      <c r="B131" s="55"/>
-      <c r="C131" s="59"/>
+      <c r="Q130" s="66"/>
+      <c r="R130" s="68"/>
+    </row>
+    <row r="131" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A131" s="54"/>
+      <c r="B131" s="66"/>
+      <c r="C131" s="58"/>
       <c r="D131" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="E131" s="10"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="11"/>
+        <v>OK</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="H131" s="8"/>
       <c r="I131" s="9" t="str">
         <f t="shared" si="6"/>
@@ -5960,26 +6006,26 @@
       <c r="J131" s="9"/>
       <c r="K131" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L131" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M131" s="8" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N131" s="11"/>
       <c r="O131" s="11"/>
       <c r="P131" s="11"/>
-      <c r="Q131" s="55"/>
-      <c r="R131" s="58"/>
+      <c r="Q131" s="66"/>
+      <c r="R131" s="68"/>
     </row>
     <row r="132" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="67"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="59"/>
+      <c r="A132" s="54"/>
+      <c r="B132" s="66"/>
+      <c r="C132" s="58"/>
       <c r="D132" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6008,13 +6054,13 @@
       <c r="N132" s="11"/>
       <c r="O132" s="11"/>
       <c r="P132" s="11"/>
-      <c r="Q132" s="55"/>
-      <c r="R132" s="58"/>
+      <c r="Q132" s="66"/>
+      <c r="R132" s="68"/>
     </row>
     <row r="133" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="59"/>
+      <c r="A133" s="54"/>
+      <c r="B133" s="66"/>
+      <c r="C133" s="58"/>
       <c r="D133" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6043,13 +6089,13 @@
       <c r="N133" s="11"/>
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
-      <c r="Q133" s="55"/>
-      <c r="R133" s="58"/>
+      <c r="Q133" s="66"/>
+      <c r="R133" s="68"/>
     </row>
     <row r="134" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="67"/>
-      <c r="B134" s="55"/>
-      <c r="C134" s="59"/>
+      <c r="A134" s="54"/>
+      <c r="B134" s="66"/>
+      <c r="C134" s="58"/>
       <c r="D134" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6078,13 +6124,13 @@
       <c r="N134" s="11"/>
       <c r="O134" s="11"/>
       <c r="P134" s="11"/>
-      <c r="Q134" s="55"/>
-      <c r="R134" s="58"/>
+      <c r="Q134" s="66"/>
+      <c r="R134" s="68"/>
     </row>
     <row r="135" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="67"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="59"/>
+      <c r="A135" s="54"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="58"/>
       <c r="D135" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6113,13 +6159,13 @@
       <c r="N135" s="11"/>
       <c r="O135" s="11"/>
       <c r="P135" s="11"/>
-      <c r="Q135" s="55"/>
-      <c r="R135" s="58"/>
+      <c r="Q135" s="66"/>
+      <c r="R135" s="68"/>
     </row>
     <row r="136" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="59"/>
+      <c r="A136" s="54"/>
+      <c r="B136" s="66"/>
+      <c r="C136" s="58"/>
       <c r="D136" s="5" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
@@ -6148,13 +6194,13 @@
       <c r="N136" s="11"/>
       <c r="O136" s="11"/>
       <c r="P136" s="11"/>
-      <c r="Q136" s="55"/>
-      <c r="R136" s="58"/>
+      <c r="Q136" s="66"/>
+      <c r="R136" s="68"/>
     </row>
     <row r="137" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="67"/>
-      <c r="B137" s="55"/>
-      <c r="C137" s="59"/>
+      <c r="A137" s="54"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="58"/>
       <c r="D137" s="5" t="str">
         <f t="shared" ref="D137:D200" si="8">IF(LEN(E137)&gt;5,IF(LEN(K137&amp;L137&amp;M137)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -6183,13 +6229,13 @@
       <c r="N137" s="11"/>
       <c r="O137" s="11"/>
       <c r="P137" s="11"/>
-      <c r="Q137" s="55"/>
-      <c r="R137" s="58"/>
+      <c r="Q137" s="66"/>
+      <c r="R137" s="68"/>
     </row>
     <row r="138" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="67"/>
-      <c r="B138" s="55"/>
-      <c r="C138" s="59"/>
+      <c r="A138" s="54"/>
+      <c r="B138" s="66"/>
+      <c r="C138" s="58"/>
       <c r="D138" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6218,13 +6264,13 @@
       <c r="N138" s="11"/>
       <c r="O138" s="11"/>
       <c r="P138" s="11"/>
-      <c r="Q138" s="55"/>
-      <c r="R138" s="58"/>
+      <c r="Q138" s="66"/>
+      <c r="R138" s="68"/>
     </row>
     <row r="139" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
-      <c r="B139" s="55"/>
-      <c r="C139" s="59"/>
+      <c r="A139" s="54"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="58"/>
       <c r="D139" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6253,13 +6299,13 @@
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
       <c r="P139" s="11"/>
-      <c r="Q139" s="55"/>
-      <c r="R139" s="58"/>
+      <c r="Q139" s="66"/>
+      <c r="R139" s="68"/>
     </row>
     <row r="140" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
-      <c r="B140" s="55"/>
-      <c r="C140" s="59"/>
+      <c r="A140" s="54"/>
+      <c r="B140" s="66"/>
+      <c r="C140" s="58"/>
       <c r="D140" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6288,13 +6334,13 @@
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
       <c r="P140" s="11"/>
-      <c r="Q140" s="55"/>
-      <c r="R140" s="58"/>
+      <c r="Q140" s="66"/>
+      <c r="R140" s="68"/>
     </row>
     <row r="141" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="67"/>
-      <c r="B141" s="55"/>
-      <c r="C141" s="59"/>
+      <c r="A141" s="54"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="58"/>
       <c r="D141" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6323,13 +6369,13 @@
       <c r="N141" s="11"/>
       <c r="O141" s="11"/>
       <c r="P141" s="11"/>
-      <c r="Q141" s="55"/>
-      <c r="R141" s="58"/>
+      <c r="Q141" s="66"/>
+      <c r="R141" s="68"/>
     </row>
     <row r="142" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="67"/>
-      <c r="B142" s="56"/>
-      <c r="C142" s="59"/>
+      <c r="A142" s="54"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="58"/>
       <c r="D142" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6358,36 +6404,34 @@
       <c r="N142" s="11"/>
       <c r="O142" s="11"/>
       <c r="P142" s="11"/>
-      <c r="Q142" s="56"/>
-      <c r="R142" s="58"/>
-    </row>
-    <row r="143" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
-      <c r="B143" s="54">
+      <c r="Q142" s="67"/>
+      <c r="R142" s="68"/>
+    </row>
+    <row r="143" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="54"/>
+      <c r="B143" s="65">
         <v>3.6</v>
       </c>
-      <c r="C143" s="59" t="s">
-        <v>40</v>
+      <c r="C143" s="58" t="s">
+        <v>37</v>
       </c>
       <c r="D143" s="5" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H143" s="5"/>
       <c r="I143" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>I</v>
+        <v>-</v>
       </c>
       <c r="J143" s="9"/>
       <c r="K143" s="8" t="str">
@@ -6402,28 +6446,28 @@
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="N143" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="N143" s="11"/>
       <c r="O143" s="11"/>
       <c r="P143" s="11"/>
-      <c r="Q143" s="54"/>
-      <c r="R143" s="58"/>
-    </row>
-    <row r="144" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="67"/>
-      <c r="B144" s="55"/>
-      <c r="C144" s="59"/>
+      <c r="Q143" s="65"/>
+      <c r="R143" s="68"/>
+    </row>
+    <row r="144" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A144" s="54"/>
+      <c r="B144" s="66"/>
+      <c r="C144" s="58"/>
       <c r="D144" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="E144" s="6"/>
+        <v>OK</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F144" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H144" s="5"/>
       <c r="I144" s="9" t="str">
@@ -6433,33 +6477,39 @@
       <c r="J144" s="9"/>
       <c r="K144" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L144" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M144" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N144" s="11"/>
       <c r="O144" s="11"/>
       <c r="P144" s="11"/>
-      <c r="Q144" s="55"/>
-      <c r="R144" s="58"/>
-    </row>
-    <row r="145" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="67"/>
-      <c r="B145" s="55"/>
-      <c r="C145" s="59"/>
+      <c r="Q144" s="66"/>
+      <c r="R144" s="68"/>
+    </row>
+    <row r="145" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A145" s="54"/>
+      <c r="B145" s="66"/>
+      <c r="C145" s="58"/>
       <c r="D145" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="E145" s="10"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="11"/>
+        <v>OK</v>
+      </c>
+      <c r="E145" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="H145" s="8"/>
       <c r="I145" s="9" t="str">
         <f t="shared" si="9"/>
@@ -6468,33 +6518,39 @@
       <c r="J145" s="9"/>
       <c r="K145" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L145" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M145" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
       <c r="P145" s="11"/>
-      <c r="Q145" s="55"/>
-      <c r="R145" s="58"/>
-    </row>
-    <row r="146" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="67"/>
-      <c r="B146" s="55"/>
-      <c r="C146" s="59"/>
+      <c r="Q145" s="66"/>
+      <c r="R145" s="68"/>
+    </row>
+    <row r="146" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A146" s="54"/>
+      <c r="B146" s="66"/>
+      <c r="C146" s="58"/>
       <c r="D146" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="E146" s="10"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="11"/>
+        <v>OK</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="H146" s="8"/>
       <c r="I146" s="9" t="str">
         <f t="shared" si="9"/>
@@ -6503,33 +6559,39 @@
       <c r="J146" s="9"/>
       <c r="K146" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L146" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M146" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N146" s="11"/>
       <c r="O146" s="11"/>
       <c r="P146" s="11"/>
-      <c r="Q146" s="55"/>
-      <c r="R146" s="58"/>
+      <c r="Q146" s="66"/>
+      <c r="R146" s="68"/>
     </row>
     <row r="147" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="67"/>
-      <c r="B147" s="55"/>
-      <c r="C147" s="59"/>
+      <c r="A147" s="54"/>
+      <c r="B147" s="66"/>
+      <c r="C147" s="58"/>
       <c r="D147" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="E147" s="10"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="11"/>
+        <v>OK</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="H147" s="8"/>
       <c r="I147" s="9" t="str">
         <f t="shared" si="9"/>
@@ -6538,33 +6600,39 @@
       <c r="J147" s="9"/>
       <c r="K147" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L147" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M147" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N147" s="11"/>
       <c r="O147" s="11"/>
       <c r="P147" s="11"/>
-      <c r="Q147" s="55"/>
-      <c r="R147" s="58"/>
-    </row>
-    <row r="148" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="67"/>
-      <c r="B148" s="55"/>
-      <c r="C148" s="59"/>
+      <c r="Q147" s="66"/>
+      <c r="R147" s="68"/>
+    </row>
+    <row r="148" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="54"/>
+      <c r="B148" s="66"/>
+      <c r="C148" s="58"/>
       <c r="D148" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="11"/>
+        <v>OK</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="H148" s="8"/>
       <c r="I148" s="9" t="str">
         <f t="shared" si="9"/>
@@ -6573,26 +6641,26 @@
       <c r="J148" s="9"/>
       <c r="K148" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L148" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M148" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N148" s="11"/>
       <c r="O148" s="11"/>
       <c r="P148" s="11"/>
-      <c r="Q148" s="55"/>
-      <c r="R148" s="58"/>
+      <c r="Q148" s="66"/>
+      <c r="R148" s="68"/>
     </row>
     <row r="149" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="67"/>
-      <c r="B149" s="55"/>
-      <c r="C149" s="59"/>
+      <c r="A149" s="54"/>
+      <c r="B149" s="66"/>
+      <c r="C149" s="58"/>
       <c r="D149" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6621,13 +6689,13 @@
       <c r="N149" s="11"/>
       <c r="O149" s="11"/>
       <c r="P149" s="11"/>
-      <c r="Q149" s="55"/>
-      <c r="R149" s="58"/>
+      <c r="Q149" s="66"/>
+      <c r="R149" s="68"/>
     </row>
     <row r="150" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="67"/>
-      <c r="B150" s="55"/>
-      <c r="C150" s="59"/>
+      <c r="A150" s="54"/>
+      <c r="B150" s="66"/>
+      <c r="C150" s="58"/>
       <c r="D150" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6656,13 +6724,13 @@
       <c r="N150" s="11"/>
       <c r="O150" s="11"/>
       <c r="P150" s="11"/>
-      <c r="Q150" s="55"/>
-      <c r="R150" s="58"/>
+      <c r="Q150" s="66"/>
+      <c r="R150" s="68"/>
     </row>
     <row r="151" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="67"/>
-      <c r="B151" s="55"/>
-      <c r="C151" s="59"/>
+      <c r="A151" s="54"/>
+      <c r="B151" s="66"/>
+      <c r="C151" s="58"/>
       <c r="D151" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6691,13 +6759,13 @@
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
       <c r="P151" s="11"/>
-      <c r="Q151" s="55"/>
-      <c r="R151" s="58"/>
+      <c r="Q151" s="66"/>
+      <c r="R151" s="68"/>
     </row>
     <row r="152" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="67"/>
-      <c r="B152" s="55"/>
-      <c r="C152" s="59"/>
+      <c r="A152" s="54"/>
+      <c r="B152" s="66"/>
+      <c r="C152" s="58"/>
       <c r="D152" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6726,13 +6794,13 @@
       <c r="N152" s="11"/>
       <c r="O152" s="11"/>
       <c r="P152" s="11"/>
-      <c r="Q152" s="55"/>
-      <c r="R152" s="58"/>
+      <c r="Q152" s="66"/>
+      <c r="R152" s="68"/>
     </row>
     <row r="153" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="67"/>
-      <c r="B153" s="55"/>
-      <c r="C153" s="59"/>
+      <c r="A153" s="54"/>
+      <c r="B153" s="66"/>
+      <c r="C153" s="58"/>
       <c r="D153" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6761,13 +6829,13 @@
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
-      <c r="Q153" s="55"/>
-      <c r="R153" s="58"/>
+      <c r="Q153" s="66"/>
+      <c r="R153" s="68"/>
     </row>
     <row r="154" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="67"/>
-      <c r="B154" s="55"/>
-      <c r="C154" s="59"/>
+      <c r="A154" s="54"/>
+      <c r="B154" s="66"/>
+      <c r="C154" s="58"/>
       <c r="D154" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6796,13 +6864,13 @@
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
-      <c r="Q154" s="55"/>
-      <c r="R154" s="58"/>
+      <c r="Q154" s="66"/>
+      <c r="R154" s="68"/>
     </row>
     <row r="155" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="67"/>
-      <c r="B155" s="55"/>
-      <c r="C155" s="59"/>
+      <c r="A155" s="54"/>
+      <c r="B155" s="66"/>
+      <c r="C155" s="58"/>
       <c r="D155" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6831,13 +6899,13 @@
       <c r="N155" s="11"/>
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
-      <c r="Q155" s="55"/>
-      <c r="R155" s="58"/>
+      <c r="Q155" s="66"/>
+      <c r="R155" s="68"/>
     </row>
     <row r="156" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="67"/>
-      <c r="B156" s="55"/>
-      <c r="C156" s="59"/>
+      <c r="A156" s="54"/>
+      <c r="B156" s="66"/>
+      <c r="C156" s="58"/>
       <c r="D156" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6866,13 +6934,13 @@
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
       <c r="P156" s="11"/>
-      <c r="Q156" s="55"/>
-      <c r="R156" s="58"/>
+      <c r="Q156" s="66"/>
+      <c r="R156" s="68"/>
     </row>
     <row r="157" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="67"/>
-      <c r="B157" s="56"/>
-      <c r="C157" s="59"/>
+      <c r="A157" s="54"/>
+      <c r="B157" s="67"/>
+      <c r="C157" s="58"/>
       <c r="D157" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -6901,36 +6969,34 @@
       <c r="N157" s="11"/>
       <c r="O157" s="11"/>
       <c r="P157" s="11"/>
-      <c r="Q157" s="56"/>
-      <c r="R157" s="58"/>
-    </row>
-    <row r="158" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A158" s="67"/>
-      <c r="B158" s="54">
+      <c r="Q157" s="67"/>
+      <c r="R157" s="68"/>
+    </row>
+    <row r="158" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A158" s="54"/>
+      <c r="B158" s="65">
         <v>3.7</v>
       </c>
-      <c r="C158" s="57" t="s">
-        <v>43</v>
+      <c r="C158" s="64" t="s">
+        <v>40</v>
       </c>
       <c r="D158" s="5" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H158" s="5"/>
       <c r="I158" s="9" t="str">
         <f t="shared" si="9"/>
-        <v>I</v>
+        <v>-</v>
       </c>
       <c r="J158" s="9"/>
       <c r="K158" s="8" t="str">
@@ -6945,28 +7011,28 @@
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
-      <c r="N158" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="N158" s="11"/>
       <c r="O158" s="11"/>
       <c r="P158" s="11"/>
-      <c r="Q158" s="54"/>
-      <c r="R158" s="58"/>
-    </row>
-    <row r="159" spans="1:18" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="67"/>
-      <c r="B159" s="55"/>
-      <c r="C159" s="57"/>
+      <c r="Q158" s="65"/>
+      <c r="R158" s="68"/>
+    </row>
+    <row r="159" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+      <c r="A159" s="54"/>
+      <c r="B159" s="66"/>
+      <c r="C159" s="64"/>
       <c r="D159" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="E159" s="10"/>
+        <v>OK</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="F159" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H159" s="5"/>
       <c r="I159" s="9" t="str">
@@ -6976,26 +7042,26 @@
       <c r="J159" s="9"/>
       <c r="K159" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="L159" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="M159" s="8" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>X</v>
       </c>
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
-      <c r="Q159" s="55"/>
-      <c r="R159" s="58"/>
+      <c r="Q159" s="66"/>
+      <c r="R159" s="68"/>
     </row>
     <row r="160" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="67"/>
-      <c r="B160" s="55"/>
-      <c r="C160" s="57"/>
+      <c r="A160" s="54"/>
+      <c r="B160" s="66"/>
+      <c r="C160" s="64"/>
       <c r="D160" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7024,13 +7090,13 @@
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
       <c r="P160" s="11"/>
-      <c r="Q160" s="55"/>
-      <c r="R160" s="58"/>
+      <c r="Q160" s="66"/>
+      <c r="R160" s="68"/>
     </row>
     <row r="161" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="67"/>
-      <c r="B161" s="55"/>
-      <c r="C161" s="57"/>
+      <c r="A161" s="54"/>
+      <c r="B161" s="66"/>
+      <c r="C161" s="64"/>
       <c r="D161" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7059,13 +7125,13 @@
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
       <c r="P161" s="11"/>
-      <c r="Q161" s="55"/>
-      <c r="R161" s="58"/>
+      <c r="Q161" s="66"/>
+      <c r="R161" s="68"/>
     </row>
     <row r="162" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="67"/>
-      <c r="B162" s="55"/>
-      <c r="C162" s="57"/>
+      <c r="A162" s="54"/>
+      <c r="B162" s="66"/>
+      <c r="C162" s="64"/>
       <c r="D162" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7094,13 +7160,13 @@
       <c r="N162" s="11"/>
       <c r="O162" s="11"/>
       <c r="P162" s="11"/>
-      <c r="Q162" s="55"/>
-      <c r="R162" s="58"/>
+      <c r="Q162" s="66"/>
+      <c r="R162" s="68"/>
     </row>
     <row r="163" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="67"/>
-      <c r="B163" s="55"/>
-      <c r="C163" s="57"/>
+      <c r="A163" s="54"/>
+      <c r="B163" s="66"/>
+      <c r="C163" s="64"/>
       <c r="D163" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7129,13 +7195,13 @@
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
       <c r="P163" s="11"/>
-      <c r="Q163" s="55"/>
-      <c r="R163" s="58"/>
+      <c r="Q163" s="66"/>
+      <c r="R163" s="68"/>
     </row>
     <row r="164" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="67"/>
-      <c r="B164" s="55"/>
-      <c r="C164" s="57"/>
+      <c r="A164" s="54"/>
+      <c r="B164" s="66"/>
+      <c r="C164" s="64"/>
       <c r="D164" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7164,13 +7230,13 @@
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
       <c r="P164" s="11"/>
-      <c r="Q164" s="55"/>
-      <c r="R164" s="58"/>
+      <c r="Q164" s="66"/>
+      <c r="R164" s="68"/>
     </row>
     <row r="165" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="67"/>
-      <c r="B165" s="55"/>
-      <c r="C165" s="57"/>
+      <c r="A165" s="54"/>
+      <c r="B165" s="66"/>
+      <c r="C165" s="64"/>
       <c r="D165" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7199,13 +7265,13 @@
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
       <c r="P165" s="11"/>
-      <c r="Q165" s="55"/>
-      <c r="R165" s="58"/>
+      <c r="Q165" s="66"/>
+      <c r="R165" s="68"/>
     </row>
     <row r="166" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="67"/>
-      <c r="B166" s="55"/>
-      <c r="C166" s="57"/>
+      <c r="A166" s="54"/>
+      <c r="B166" s="66"/>
+      <c r="C166" s="64"/>
       <c r="D166" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7234,13 +7300,13 @@
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
       <c r="P166" s="11"/>
-      <c r="Q166" s="55"/>
-      <c r="R166" s="58"/>
+      <c r="Q166" s="66"/>
+      <c r="R166" s="68"/>
     </row>
     <row r="167" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="67"/>
-      <c r="B167" s="55"/>
-      <c r="C167" s="57"/>
+      <c r="A167" s="54"/>
+      <c r="B167" s="66"/>
+      <c r="C167" s="64"/>
       <c r="D167" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7269,13 +7335,13 @@
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
       <c r="P167" s="11"/>
-      <c r="Q167" s="55"/>
-      <c r="R167" s="58"/>
+      <c r="Q167" s="66"/>
+      <c r="R167" s="68"/>
     </row>
     <row r="168" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="67"/>
-      <c r="B168" s="55"/>
-      <c r="C168" s="57"/>
+      <c r="A168" s="54"/>
+      <c r="B168" s="66"/>
+      <c r="C168" s="64"/>
       <c r="D168" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7304,13 +7370,13 @@
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
       <c r="P168" s="11"/>
-      <c r="Q168" s="55"/>
-      <c r="R168" s="58"/>
+      <c r="Q168" s="66"/>
+      <c r="R168" s="68"/>
     </row>
     <row r="169" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="67"/>
-      <c r="B169" s="55"/>
-      <c r="C169" s="57"/>
+      <c r="A169" s="54"/>
+      <c r="B169" s="66"/>
+      <c r="C169" s="64"/>
       <c r="D169" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7339,13 +7405,13 @@
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
       <c r="P169" s="11"/>
-      <c r="Q169" s="55"/>
-      <c r="R169" s="58"/>
+      <c r="Q169" s="66"/>
+      <c r="R169" s="68"/>
     </row>
     <row r="170" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="67"/>
-      <c r="B170" s="55"/>
-      <c r="C170" s="57"/>
+      <c r="A170" s="54"/>
+      <c r="B170" s="66"/>
+      <c r="C170" s="64"/>
       <c r="D170" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7374,13 +7440,13 @@
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
       <c r="P170" s="11"/>
-      <c r="Q170" s="55"/>
-      <c r="R170" s="58"/>
+      <c r="Q170" s="66"/>
+      <c r="R170" s="68"/>
     </row>
     <row r="171" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="67"/>
-      <c r="B171" s="55"/>
-      <c r="C171" s="57"/>
+      <c r="A171" s="54"/>
+      <c r="B171" s="66"/>
+      <c r="C171" s="64"/>
       <c r="D171" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7409,13 +7475,13 @@
       <c r="N171" s="11"/>
       <c r="O171" s="11"/>
       <c r="P171" s="11"/>
-      <c r="Q171" s="55"/>
-      <c r="R171" s="58"/>
+      <c r="Q171" s="66"/>
+      <c r="R171" s="68"/>
     </row>
     <row r="172" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="67"/>
-      <c r="B172" s="56"/>
-      <c r="C172" s="57"/>
+      <c r="A172" s="54"/>
+      <c r="B172" s="67"/>
+      <c r="C172" s="64"/>
       <c r="D172" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7444,13 +7510,13 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
       <c r="P172" s="11"/>
-      <c r="Q172" s="56"/>
-      <c r="R172" s="58"/>
+      <c r="Q172" s="67"/>
+      <c r="R172" s="68"/>
     </row>
     <row r="173" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
-      <c r="B173" s="54"/>
-      <c r="C173" s="57"/>
+      <c r="B173" s="65"/>
+      <c r="C173" s="64"/>
       <c r="D173" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7479,13 +7545,13 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
       <c r="P173" s="11"/>
-      <c r="Q173" s="54"/>
-      <c r="R173" s="58"/>
+      <c r="Q173" s="65"/>
+      <c r="R173" s="68"/>
     </row>
     <row r="174" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="17"/>
-      <c r="B174" s="55"/>
-      <c r="C174" s="57"/>
+      <c r="B174" s="66"/>
+      <c r="C174" s="64"/>
       <c r="D174" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7514,13 +7580,13 @@
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
       <c r="P174" s="11"/>
-      <c r="Q174" s="55"/>
-      <c r="R174" s="58"/>
+      <c r="Q174" s="66"/>
+      <c r="R174" s="68"/>
     </row>
     <row r="175" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
-      <c r="B175" s="55"/>
-      <c r="C175" s="57"/>
+      <c r="B175" s="66"/>
+      <c r="C175" s="64"/>
       <c r="D175" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7549,13 +7615,13 @@
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
       <c r="P175" s="11"/>
-      <c r="Q175" s="55"/>
-      <c r="R175" s="58"/>
+      <c r="Q175" s="66"/>
+      <c r="R175" s="68"/>
     </row>
     <row r="176" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
-      <c r="B176" s="55"/>
-      <c r="C176" s="57"/>
+      <c r="B176" s="66"/>
+      <c r="C176" s="64"/>
       <c r="D176" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7584,13 +7650,13 @@
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
       <c r="P176" s="11"/>
-      <c r="Q176" s="55"/>
-      <c r="R176" s="58"/>
+      <c r="Q176" s="66"/>
+      <c r="R176" s="68"/>
     </row>
     <row r="177" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
-      <c r="B177" s="55"/>
-      <c r="C177" s="57"/>
+      <c r="B177" s="66"/>
+      <c r="C177" s="64"/>
       <c r="D177" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7619,13 +7685,13 @@
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
       <c r="P177" s="11"/>
-      <c r="Q177" s="55"/>
-      <c r="R177" s="58"/>
+      <c r="Q177" s="66"/>
+      <c r="R177" s="68"/>
     </row>
     <row r="178" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="17"/>
-      <c r="B178" s="55"/>
-      <c r="C178" s="57"/>
+      <c r="B178" s="66"/>
+      <c r="C178" s="64"/>
       <c r="D178" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7654,13 +7720,13 @@
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
       <c r="P178" s="11"/>
-      <c r="Q178" s="55"/>
-      <c r="R178" s="58"/>
+      <c r="Q178" s="66"/>
+      <c r="R178" s="68"/>
     </row>
     <row r="179" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
-      <c r="B179" s="55"/>
-      <c r="C179" s="57"/>
+      <c r="B179" s="66"/>
+      <c r="C179" s="64"/>
       <c r="D179" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7689,13 +7755,13 @@
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
       <c r="P179" s="11"/>
-      <c r="Q179" s="55"/>
-      <c r="R179" s="58"/>
+      <c r="Q179" s="66"/>
+      <c r="R179" s="68"/>
     </row>
     <row r="180" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
-      <c r="B180" s="55"/>
-      <c r="C180" s="57"/>
+      <c r="B180" s="66"/>
+      <c r="C180" s="64"/>
       <c r="D180" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7724,13 +7790,13 @@
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
       <c r="P180" s="11"/>
-      <c r="Q180" s="55"/>
-      <c r="R180" s="58"/>
+      <c r="Q180" s="66"/>
+      <c r="R180" s="68"/>
     </row>
     <row r="181" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="17"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="57"/>
+      <c r="B181" s="66"/>
+      <c r="C181" s="64"/>
       <c r="D181" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7759,13 +7825,13 @@
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
       <c r="P181" s="11"/>
-      <c r="Q181" s="55"/>
-      <c r="R181" s="58"/>
+      <c r="Q181" s="66"/>
+      <c r="R181" s="68"/>
     </row>
     <row r="182" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
-      <c r="B182" s="55"/>
-      <c r="C182" s="57"/>
+      <c r="B182" s="66"/>
+      <c r="C182" s="64"/>
       <c r="D182" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7794,13 +7860,13 @@
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
       <c r="P182" s="11"/>
-      <c r="Q182" s="55"/>
-      <c r="R182" s="58"/>
+      <c r="Q182" s="66"/>
+      <c r="R182" s="68"/>
     </row>
     <row r="183" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="17"/>
-      <c r="B183" s="55"/>
-      <c r="C183" s="57"/>
+      <c r="B183" s="66"/>
+      <c r="C183" s="64"/>
       <c r="D183" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7829,13 +7895,13 @@
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
       <c r="P183" s="11"/>
-      <c r="Q183" s="55"/>
-      <c r="R183" s="58"/>
+      <c r="Q183" s="66"/>
+      <c r="R183" s="68"/>
     </row>
     <row r="184" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
-      <c r="B184" s="55"/>
-      <c r="C184" s="57"/>
+      <c r="B184" s="66"/>
+      <c r="C184" s="64"/>
       <c r="D184" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7864,13 +7930,13 @@
       <c r="N184" s="11"/>
       <c r="O184" s="11"/>
       <c r="P184" s="11"/>
-      <c r="Q184" s="55"/>
-      <c r="R184" s="58"/>
+      <c r="Q184" s="66"/>
+      <c r="R184" s="68"/>
     </row>
     <row r="185" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="17"/>
-      <c r="B185" s="55"/>
-      <c r="C185" s="57"/>
+      <c r="B185" s="66"/>
+      <c r="C185" s="64"/>
       <c r="D185" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7899,13 +7965,13 @@
       <c r="N185" s="11"/>
       <c r="O185" s="11"/>
       <c r="P185" s="11"/>
-      <c r="Q185" s="55"/>
-      <c r="R185" s="58"/>
+      <c r="Q185" s="66"/>
+      <c r="R185" s="68"/>
     </row>
     <row r="186" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="17"/>
-      <c r="B186" s="55"/>
-      <c r="C186" s="57"/>
+      <c r="B186" s="66"/>
+      <c r="C186" s="64"/>
       <c r="D186" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7934,13 +8000,13 @@
       <c r="N186" s="11"/>
       <c r="O186" s="11"/>
       <c r="P186" s="11"/>
-      <c r="Q186" s="55"/>
-      <c r="R186" s="58"/>
+      <c r="Q186" s="66"/>
+      <c r="R186" s="68"/>
     </row>
     <row r="187" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="17"/>
-      <c r="B187" s="56"/>
-      <c r="C187" s="57"/>
+      <c r="B187" s="67"/>
+      <c r="C187" s="64"/>
       <c r="D187" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -7969,13 +8035,13 @@
       <c r="N187" s="11"/>
       <c r="O187" s="11"/>
       <c r="P187" s="11"/>
-      <c r="Q187" s="56"/>
-      <c r="R187" s="58"/>
+      <c r="Q187" s="67"/>
+      <c r="R187" s="68"/>
     </row>
     <row r="188" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="17"/>
-      <c r="B188" s="54"/>
-      <c r="C188" s="57"/>
+      <c r="B188" s="65"/>
+      <c r="C188" s="64"/>
       <c r="D188" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8004,13 +8070,13 @@
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
       <c r="P188" s="11"/>
-      <c r="Q188" s="54"/>
-      <c r="R188" s="58"/>
+      <c r="Q188" s="65"/>
+      <c r="R188" s="68"/>
     </row>
     <row r="189" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A189" s="17"/>
-      <c r="B189" s="55"/>
-      <c r="C189" s="57"/>
+      <c r="B189" s="66"/>
+      <c r="C189" s="64"/>
       <c r="D189" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8039,13 +8105,13 @@
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
       <c r="P189" s="11"/>
-      <c r="Q189" s="55"/>
-      <c r="R189" s="58"/>
+      <c r="Q189" s="66"/>
+      <c r="R189" s="68"/>
     </row>
     <row r="190" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
-      <c r="B190" s="55"/>
-      <c r="C190" s="57"/>
+      <c r="B190" s="66"/>
+      <c r="C190" s="64"/>
       <c r="D190" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8074,13 +8140,13 @@
       <c r="N190" s="11"/>
       <c r="O190" s="11"/>
       <c r="P190" s="11"/>
-      <c r="Q190" s="55"/>
-      <c r="R190" s="58"/>
+      <c r="Q190" s="66"/>
+      <c r="R190" s="68"/>
     </row>
     <row r="191" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="17"/>
-      <c r="B191" s="55"/>
-      <c r="C191" s="57"/>
+      <c r="B191" s="66"/>
+      <c r="C191" s="64"/>
       <c r="D191" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8109,13 +8175,13 @@
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
       <c r="P191" s="11"/>
-      <c r="Q191" s="55"/>
-      <c r="R191" s="58"/>
+      <c r="Q191" s="66"/>
+      <c r="R191" s="68"/>
     </row>
     <row r="192" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
-      <c r="B192" s="55"/>
-      <c r="C192" s="57"/>
+      <c r="B192" s="66"/>
+      <c r="C192" s="64"/>
       <c r="D192" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8144,13 +8210,13 @@
       <c r="N192" s="11"/>
       <c r="O192" s="11"/>
       <c r="P192" s="11"/>
-      <c r="Q192" s="55"/>
-      <c r="R192" s="58"/>
+      <c r="Q192" s="66"/>
+      <c r="R192" s="68"/>
     </row>
     <row r="193" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
-      <c r="B193" s="55"/>
-      <c r="C193" s="57"/>
+      <c r="B193" s="66"/>
+      <c r="C193" s="64"/>
       <c r="D193" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8179,13 +8245,13 @@
       <c r="N193" s="11"/>
       <c r="O193" s="11"/>
       <c r="P193" s="11"/>
-      <c r="Q193" s="55"/>
-      <c r="R193" s="58"/>
+      <c r="Q193" s="66"/>
+      <c r="R193" s="68"/>
     </row>
     <row r="194" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
-      <c r="B194" s="55"/>
-      <c r="C194" s="57"/>
+      <c r="B194" s="66"/>
+      <c r="C194" s="64"/>
       <c r="D194" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8214,13 +8280,13 @@
       <c r="N194" s="11"/>
       <c r="O194" s="11"/>
       <c r="P194" s="11"/>
-      <c r="Q194" s="55"/>
-      <c r="R194" s="58"/>
+      <c r="Q194" s="66"/>
+      <c r="R194" s="68"/>
     </row>
     <row r="195" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
-      <c r="B195" s="55"/>
-      <c r="C195" s="57"/>
+      <c r="B195" s="66"/>
+      <c r="C195" s="64"/>
       <c r="D195" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8249,13 +8315,13 @@
       <c r="N195" s="11"/>
       <c r="O195" s="11"/>
       <c r="P195" s="11"/>
-      <c r="Q195" s="55"/>
-      <c r="R195" s="58"/>
+      <c r="Q195" s="66"/>
+      <c r="R195" s="68"/>
     </row>
     <row r="196" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
-      <c r="B196" s="55"/>
-      <c r="C196" s="57"/>
+      <c r="B196" s="66"/>
+      <c r="C196" s="64"/>
       <c r="D196" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8284,13 +8350,13 @@
       <c r="N196" s="11"/>
       <c r="O196" s="11"/>
       <c r="P196" s="11"/>
-      <c r="Q196" s="55"/>
-      <c r="R196" s="58"/>
+      <c r="Q196" s="66"/>
+      <c r="R196" s="68"/>
     </row>
     <row r="197" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="17"/>
-      <c r="B197" s="55"/>
-      <c r="C197" s="57"/>
+      <c r="B197" s="66"/>
+      <c r="C197" s="64"/>
       <c r="D197" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8300,7 +8366,7 @@
       <c r="G197" s="11"/>
       <c r="H197" s="8"/>
       <c r="I197" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J197" s="9"/>
       <c r="K197" s="8" t="str">
@@ -8318,13 +8384,13 @@
       <c r="N197" s="11"/>
       <c r="O197" s="11"/>
       <c r="P197" s="11"/>
-      <c r="Q197" s="55"/>
-      <c r="R197" s="58"/>
+      <c r="Q197" s="66"/>
+      <c r="R197" s="68"/>
     </row>
     <row r="198" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="17"/>
-      <c r="B198" s="55"/>
-      <c r="C198" s="57"/>
+      <c r="B198" s="66"/>
+      <c r="C198" s="64"/>
       <c r="D198" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8353,13 +8419,13 @@
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
       <c r="P198" s="11"/>
-      <c r="Q198" s="55"/>
-      <c r="R198" s="58"/>
+      <c r="Q198" s="66"/>
+      <c r="R198" s="68"/>
     </row>
     <row r="199" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="17"/>
-      <c r="B199" s="55"/>
-      <c r="C199" s="57"/>
+      <c r="B199" s="66"/>
+      <c r="C199" s="64"/>
       <c r="D199" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8388,13 +8454,13 @@
       <c r="N199" s="11"/>
       <c r="O199" s="11"/>
       <c r="P199" s="11"/>
-      <c r="Q199" s="55"/>
-      <c r="R199" s="58"/>
+      <c r="Q199" s="66"/>
+      <c r="R199" s="68"/>
     </row>
     <row r="200" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="17"/>
-      <c r="B200" s="55"/>
-      <c r="C200" s="57"/>
+      <c r="B200" s="66"/>
+      <c r="C200" s="64"/>
       <c r="D200" s="5" t="str">
         <f t="shared" si="8"/>
         <v>-</v>
@@ -8423,13 +8489,13 @@
       <c r="N200" s="11"/>
       <c r="O200" s="11"/>
       <c r="P200" s="11"/>
-      <c r="Q200" s="55"/>
-      <c r="R200" s="58"/>
+      <c r="Q200" s="66"/>
+      <c r="R200" s="68"/>
     </row>
     <row r="201" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="17"/>
-      <c r="B201" s="55"/>
-      <c r="C201" s="57"/>
+      <c r="B201" s="66"/>
+      <c r="C201" s="64"/>
       <c r="D201" s="5" t="str">
         <f t="shared" ref="D201:D264" si="12">IF(LEN(E201)&gt;5,IF(LEN(K201&amp;L201&amp;M201)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -8458,13 +8524,13 @@
       <c r="N201" s="11"/>
       <c r="O201" s="11"/>
       <c r="P201" s="11"/>
-      <c r="Q201" s="55"/>
-      <c r="R201" s="58"/>
+      <c r="Q201" s="66"/>
+      <c r="R201" s="68"/>
     </row>
     <row r="202" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="17"/>
-      <c r="B202" s="56"/>
-      <c r="C202" s="57"/>
+      <c r="B202" s="67"/>
+      <c r="C202" s="64"/>
       <c r="D202" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8493,13 +8559,13 @@
       <c r="N202" s="11"/>
       <c r="O202" s="11"/>
       <c r="P202" s="11"/>
-      <c r="Q202" s="56"/>
-      <c r="R202" s="58"/>
+      <c r="Q202" s="67"/>
+      <c r="R202" s="68"/>
     </row>
     <row r="203" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="17"/>
-      <c r="B203" s="54"/>
-      <c r="C203" s="57"/>
+      <c r="B203" s="65"/>
+      <c r="C203" s="64"/>
       <c r="D203" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8528,13 +8594,13 @@
       <c r="N203" s="11"/>
       <c r="O203" s="11"/>
       <c r="P203" s="11"/>
-      <c r="Q203" s="54"/>
-      <c r="R203" s="58"/>
+      <c r="Q203" s="65"/>
+      <c r="R203" s="68"/>
     </row>
     <row r="204" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A204" s="17"/>
-      <c r="B204" s="55"/>
-      <c r="C204" s="57"/>
+      <c r="B204" s="66"/>
+      <c r="C204" s="64"/>
       <c r="D204" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8563,13 +8629,13 @@
       <c r="N204" s="11"/>
       <c r="O204" s="11"/>
       <c r="P204" s="11"/>
-      <c r="Q204" s="55"/>
-      <c r="R204" s="58"/>
+      <c r="Q204" s="66"/>
+      <c r="R204" s="68"/>
     </row>
     <row r="205" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A205" s="17"/>
-      <c r="B205" s="55"/>
-      <c r="C205" s="57"/>
+      <c r="B205" s="66"/>
+      <c r="C205" s="64"/>
       <c r="D205" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8598,13 +8664,13 @@
       <c r="N205" s="11"/>
       <c r="O205" s="11"/>
       <c r="P205" s="11"/>
-      <c r="Q205" s="55"/>
-      <c r="R205" s="58"/>
+      <c r="Q205" s="66"/>
+      <c r="R205" s="68"/>
     </row>
     <row r="206" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="17"/>
-      <c r="B206" s="55"/>
-      <c r="C206" s="57"/>
+      <c r="B206" s="66"/>
+      <c r="C206" s="64"/>
       <c r="D206" s="26" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8633,13 +8699,13 @@
       <c r="N206" s="11"/>
       <c r="O206" s="11"/>
       <c r="P206" s="11"/>
-      <c r="Q206" s="55"/>
-      <c r="R206" s="58"/>
+      <c r="Q206" s="66"/>
+      <c r="R206" s="68"/>
     </row>
     <row r="207" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="17"/>
-      <c r="B207" s="55"/>
-      <c r="C207" s="57"/>
+      <c r="B207" s="66"/>
+      <c r="C207" s="64"/>
       <c r="D207" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8668,13 +8734,13 @@
       <c r="N207" s="11"/>
       <c r="O207" s="11"/>
       <c r="P207" s="11"/>
-      <c r="Q207" s="55"/>
-      <c r="R207" s="58"/>
+      <c r="Q207" s="66"/>
+      <c r="R207" s="68"/>
     </row>
     <row r="208" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="17"/>
-      <c r="B208" s="55"/>
-      <c r="C208" s="57"/>
+      <c r="B208" s="66"/>
+      <c r="C208" s="64"/>
       <c r="D208" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8703,13 +8769,13 @@
       <c r="N208" s="11"/>
       <c r="O208" s="11"/>
       <c r="P208" s="11"/>
-      <c r="Q208" s="55"/>
-      <c r="R208" s="58"/>
+      <c r="Q208" s="66"/>
+      <c r="R208" s="68"/>
     </row>
     <row r="209" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
-      <c r="B209" s="55"/>
-      <c r="C209" s="57"/>
+      <c r="B209" s="66"/>
+      <c r="C209" s="64"/>
       <c r="D209" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8738,13 +8804,13 @@
       <c r="N209" s="11"/>
       <c r="O209" s="11"/>
       <c r="P209" s="11"/>
-      <c r="Q209" s="55"/>
-      <c r="R209" s="58"/>
+      <c r="Q209" s="66"/>
+      <c r="R209" s="68"/>
     </row>
     <row r="210" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="17"/>
-      <c r="B210" s="55"/>
-      <c r="C210" s="57"/>
+      <c r="B210" s="66"/>
+      <c r="C210" s="64"/>
       <c r="D210" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8773,13 +8839,13 @@
       <c r="N210" s="11"/>
       <c r="O210" s="11"/>
       <c r="P210" s="11"/>
-      <c r="Q210" s="55"/>
-      <c r="R210" s="58"/>
+      <c r="Q210" s="66"/>
+      <c r="R210" s="68"/>
     </row>
     <row r="211" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="17"/>
-      <c r="B211" s="55"/>
-      <c r="C211" s="57"/>
+      <c r="B211" s="66"/>
+      <c r="C211" s="64"/>
       <c r="D211" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8808,13 +8874,13 @@
       <c r="N211" s="11"/>
       <c r="O211" s="11"/>
       <c r="P211" s="11"/>
-      <c r="Q211" s="55"/>
-      <c r="R211" s="58"/>
+      <c r="Q211" s="66"/>
+      <c r="R211" s="68"/>
     </row>
     <row r="212" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="17"/>
-      <c r="B212" s="55"/>
-      <c r="C212" s="57"/>
+      <c r="B212" s="66"/>
+      <c r="C212" s="64"/>
       <c r="D212" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8843,13 +8909,13 @@
       <c r="N212" s="11"/>
       <c r="O212" s="11"/>
       <c r="P212" s="11"/>
-      <c r="Q212" s="55"/>
-      <c r="R212" s="58"/>
+      <c r="Q212" s="66"/>
+      <c r="R212" s="68"/>
     </row>
     <row r="213" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="17"/>
-      <c r="B213" s="55"/>
-      <c r="C213" s="57"/>
+      <c r="B213" s="66"/>
+      <c r="C213" s="64"/>
       <c r="D213" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8878,13 +8944,13 @@
       <c r="N213" s="11"/>
       <c r="O213" s="11"/>
       <c r="P213" s="11"/>
-      <c r="Q213" s="55"/>
-      <c r="R213" s="58"/>
+      <c r="Q213" s="66"/>
+      <c r="R213" s="68"/>
     </row>
     <row r="214" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="17"/>
-      <c r="B214" s="55"/>
-      <c r="C214" s="57"/>
+      <c r="B214" s="66"/>
+      <c r="C214" s="64"/>
       <c r="D214" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8913,13 +8979,13 @@
       <c r="N214" s="11"/>
       <c r="O214" s="11"/>
       <c r="P214" s="11"/>
-      <c r="Q214" s="55"/>
-      <c r="R214" s="58"/>
+      <c r="Q214" s="66"/>
+      <c r="R214" s="68"/>
     </row>
     <row r="215" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="17"/>
-      <c r="B215" s="55"/>
-      <c r="C215" s="57"/>
+      <c r="B215" s="66"/>
+      <c r="C215" s="64"/>
       <c r="D215" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8948,13 +9014,13 @@
       <c r="N215" s="11"/>
       <c r="O215" s="11"/>
       <c r="P215" s="11"/>
-      <c r="Q215" s="55"/>
-      <c r="R215" s="58"/>
+      <c r="Q215" s="66"/>
+      <c r="R215" s="68"/>
     </row>
     <row r="216" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="17"/>
-      <c r="B216" s="55"/>
-      <c r="C216" s="57"/>
+      <c r="B216" s="66"/>
+      <c r="C216" s="64"/>
       <c r="D216" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -8983,13 +9049,13 @@
       <c r="N216" s="11"/>
       <c r="O216" s="11"/>
       <c r="P216" s="11"/>
-      <c r="Q216" s="55"/>
-      <c r="R216" s="58"/>
+      <c r="Q216" s="66"/>
+      <c r="R216" s="68"/>
     </row>
     <row r="217" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="17"/>
-      <c r="B217" s="56"/>
-      <c r="C217" s="57"/>
+      <c r="B217" s="67"/>
+      <c r="C217" s="64"/>
       <c r="D217" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9018,13 +9084,13 @@
       <c r="N217" s="11"/>
       <c r="O217" s="11"/>
       <c r="P217" s="11"/>
-      <c r="Q217" s="56"/>
-      <c r="R217" s="58"/>
+      <c r="Q217" s="67"/>
+      <c r="R217" s="68"/>
     </row>
     <row r="218" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="17"/>
-      <c r="B218" s="54"/>
-      <c r="C218" s="57"/>
+      <c r="B218" s="65"/>
+      <c r="C218" s="64"/>
       <c r="D218" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9053,13 +9119,13 @@
       <c r="N218" s="11"/>
       <c r="O218" s="11"/>
       <c r="P218" s="11"/>
-      <c r="Q218" s="54"/>
-      <c r="R218" s="58"/>
+      <c r="Q218" s="65"/>
+      <c r="R218" s="68"/>
     </row>
     <row r="219" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A219" s="17"/>
-      <c r="B219" s="55"/>
-      <c r="C219" s="57"/>
+      <c r="B219" s="66"/>
+      <c r="C219" s="64"/>
       <c r="D219" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9088,13 +9154,13 @@
       <c r="N219" s="11"/>
       <c r="O219" s="11"/>
       <c r="P219" s="11"/>
-      <c r="Q219" s="55"/>
-      <c r="R219" s="58"/>
+      <c r="Q219" s="66"/>
+      <c r="R219" s="68"/>
     </row>
     <row r="220" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="17"/>
-      <c r="B220" s="55"/>
-      <c r="C220" s="57"/>
+      <c r="B220" s="66"/>
+      <c r="C220" s="64"/>
       <c r="D220" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9123,13 +9189,13 @@
       <c r="N220" s="11"/>
       <c r="O220" s="11"/>
       <c r="P220" s="11"/>
-      <c r="Q220" s="55"/>
-      <c r="R220" s="58"/>
+      <c r="Q220" s="66"/>
+      <c r="R220" s="68"/>
     </row>
     <row r="221" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="17"/>
-      <c r="B221" s="55"/>
-      <c r="C221" s="57"/>
+      <c r="B221" s="66"/>
+      <c r="C221" s="64"/>
       <c r="D221" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9158,13 +9224,13 @@
       <c r="N221" s="11"/>
       <c r="O221" s="11"/>
       <c r="P221" s="11"/>
-      <c r="Q221" s="55"/>
-      <c r="R221" s="58"/>
+      <c r="Q221" s="66"/>
+      <c r="R221" s="68"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="17"/>
-      <c r="B222" s="55"/>
-      <c r="C222" s="57"/>
+      <c r="B222" s="66"/>
+      <c r="C222" s="64"/>
       <c r="D222" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9193,13 +9259,13 @@
       <c r="N222" s="11"/>
       <c r="O222" s="11"/>
       <c r="P222" s="11"/>
-      <c r="Q222" s="55"/>
-      <c r="R222" s="58"/>
+      <c r="Q222" s="66"/>
+      <c r="R222" s="68"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
-      <c r="B223" s="55"/>
-      <c r="C223" s="57"/>
+      <c r="B223" s="66"/>
+      <c r="C223" s="64"/>
       <c r="D223" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9228,13 +9294,13 @@
       <c r="N223" s="11"/>
       <c r="O223" s="11"/>
       <c r="P223" s="11"/>
-      <c r="Q223" s="55"/>
-      <c r="R223" s="58"/>
+      <c r="Q223" s="66"/>
+      <c r="R223" s="68"/>
     </row>
     <row r="224" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
-      <c r="B224" s="55"/>
-      <c r="C224" s="57"/>
+      <c r="B224" s="66"/>
+      <c r="C224" s="64"/>
       <c r="D224" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9263,13 +9329,13 @@
       <c r="N224" s="11"/>
       <c r="O224" s="11"/>
       <c r="P224" s="11"/>
-      <c r="Q224" s="55"/>
-      <c r="R224" s="58"/>
+      <c r="Q224" s="66"/>
+      <c r="R224" s="68"/>
     </row>
     <row r="225" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
-      <c r="B225" s="55"/>
-      <c r="C225" s="57"/>
+      <c r="B225" s="66"/>
+      <c r="C225" s="64"/>
       <c r="D225" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9298,13 +9364,13 @@
       <c r="N225" s="11"/>
       <c r="O225" s="11"/>
       <c r="P225" s="11"/>
-      <c r="Q225" s="55"/>
-      <c r="R225" s="58"/>
+      <c r="Q225" s="66"/>
+      <c r="R225" s="68"/>
     </row>
     <row r="226" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="17"/>
-      <c r="B226" s="55"/>
-      <c r="C226" s="57"/>
+      <c r="B226" s="66"/>
+      <c r="C226" s="64"/>
       <c r="D226" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9333,13 +9399,13 @@
       <c r="N226" s="11"/>
       <c r="O226" s="11"/>
       <c r="P226" s="11"/>
-      <c r="Q226" s="55"/>
-      <c r="R226" s="58"/>
+      <c r="Q226" s="66"/>
+      <c r="R226" s="68"/>
     </row>
     <row r="227" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="17"/>
-      <c r="B227" s="55"/>
-      <c r="C227" s="57"/>
+      <c r="B227" s="66"/>
+      <c r="C227" s="64"/>
       <c r="D227" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9368,13 +9434,13 @@
       <c r="N227" s="11"/>
       <c r="O227" s="11"/>
       <c r="P227" s="11"/>
-      <c r="Q227" s="55"/>
-      <c r="R227" s="58"/>
+      <c r="Q227" s="66"/>
+      <c r="R227" s="68"/>
     </row>
     <row r="228" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="17"/>
-      <c r="B228" s="55"/>
-      <c r="C228" s="57"/>
+      <c r="B228" s="66"/>
+      <c r="C228" s="64"/>
       <c r="D228" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9403,13 +9469,13 @@
       <c r="N228" s="11"/>
       <c r="O228" s="11"/>
       <c r="P228" s="11"/>
-      <c r="Q228" s="55"/>
-      <c r="R228" s="58"/>
+      <c r="Q228" s="66"/>
+      <c r="R228" s="68"/>
     </row>
     <row r="229" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="17"/>
-      <c r="B229" s="55"/>
-      <c r="C229" s="57"/>
+      <c r="B229" s="66"/>
+      <c r="C229" s="64"/>
       <c r="D229" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9438,13 +9504,13 @@
       <c r="N229" s="11"/>
       <c r="O229" s="11"/>
       <c r="P229" s="11"/>
-      <c r="Q229" s="55"/>
-      <c r="R229" s="58"/>
+      <c r="Q229" s="66"/>
+      <c r="R229" s="68"/>
     </row>
     <row r="230" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="17"/>
-      <c r="B230" s="55"/>
-      <c r="C230" s="57"/>
+      <c r="B230" s="66"/>
+      <c r="C230" s="64"/>
       <c r="D230" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9473,13 +9539,13 @@
       <c r="N230" s="11"/>
       <c r="O230" s="11"/>
       <c r="P230" s="11"/>
-      <c r="Q230" s="55"/>
-      <c r="R230" s="58"/>
+      <c r="Q230" s="66"/>
+      <c r="R230" s="68"/>
     </row>
     <row r="231" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="17"/>
-      <c r="B231" s="55"/>
-      <c r="C231" s="57"/>
+      <c r="B231" s="66"/>
+      <c r="C231" s="64"/>
       <c r="D231" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9508,13 +9574,13 @@
       <c r="N231" s="11"/>
       <c r="O231" s="11"/>
       <c r="P231" s="11"/>
-      <c r="Q231" s="55"/>
-      <c r="R231" s="58"/>
+      <c r="Q231" s="66"/>
+      <c r="R231" s="68"/>
     </row>
     <row r="232" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="17"/>
-      <c r="B232" s="56"/>
-      <c r="C232" s="57"/>
+      <c r="B232" s="67"/>
+      <c r="C232" s="64"/>
       <c r="D232" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9543,13 +9609,13 @@
       <c r="N232" s="11"/>
       <c r="O232" s="11"/>
       <c r="P232" s="11"/>
-      <c r="Q232" s="56"/>
-      <c r="R232" s="58"/>
+      <c r="Q232" s="67"/>
+      <c r="R232" s="68"/>
     </row>
     <row r="233" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="17"/>
-      <c r="B233" s="54"/>
-      <c r="C233" s="57"/>
+      <c r="B233" s="65"/>
+      <c r="C233" s="64"/>
       <c r="D233" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9578,13 +9644,13 @@
       <c r="N233" s="11"/>
       <c r="O233" s="11"/>
       <c r="P233" s="35"/>
-      <c r="Q233" s="54"/>
-      <c r="R233" s="58"/>
+      <c r="Q233" s="65"/>
+      <c r="R233" s="68"/>
     </row>
     <row r="234" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="17"/>
-      <c r="B234" s="55"/>
-      <c r="C234" s="57"/>
+      <c r="B234" s="66"/>
+      <c r="C234" s="64"/>
       <c r="D234" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9613,13 +9679,13 @@
       <c r="N234" s="11"/>
       <c r="O234" s="11"/>
       <c r="P234" s="35"/>
-      <c r="Q234" s="55"/>
-      <c r="R234" s="58"/>
+      <c r="Q234" s="66"/>
+      <c r="R234" s="68"/>
     </row>
     <row r="235" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="17"/>
-      <c r="B235" s="55"/>
-      <c r="C235" s="57"/>
+      <c r="B235" s="66"/>
+      <c r="C235" s="64"/>
       <c r="D235" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9648,13 +9714,13 @@
       <c r="N235" s="11"/>
       <c r="O235" s="11"/>
       <c r="P235" s="11"/>
-      <c r="Q235" s="55"/>
-      <c r="R235" s="58"/>
+      <c r="Q235" s="66"/>
+      <c r="R235" s="68"/>
     </row>
     <row r="236" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="17"/>
-      <c r="B236" s="55"/>
-      <c r="C236" s="57"/>
+      <c r="B236" s="66"/>
+      <c r="C236" s="64"/>
       <c r="D236" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9683,13 +9749,13 @@
       <c r="N236" s="11"/>
       <c r="O236" s="11"/>
       <c r="P236" s="11"/>
-      <c r="Q236" s="55"/>
-      <c r="R236" s="58"/>
+      <c r="Q236" s="66"/>
+      <c r="R236" s="68"/>
     </row>
     <row r="237" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="17"/>
-      <c r="B237" s="55"/>
-      <c r="C237" s="57"/>
+      <c r="B237" s="66"/>
+      <c r="C237" s="64"/>
       <c r="D237" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9718,13 +9784,13 @@
       <c r="N237" s="11"/>
       <c r="O237" s="11"/>
       <c r="P237" s="11"/>
-      <c r="Q237" s="55"/>
-      <c r="R237" s="58"/>
+      <c r="Q237" s="66"/>
+      <c r="R237" s="68"/>
     </row>
     <row r="238" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="17"/>
-      <c r="B238" s="55"/>
-      <c r="C238" s="57"/>
+      <c r="B238" s="66"/>
+      <c r="C238" s="64"/>
       <c r="D238" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9753,13 +9819,13 @@
       <c r="N238" s="11"/>
       <c r="O238" s="11"/>
       <c r="P238" s="11"/>
-      <c r="Q238" s="55"/>
-      <c r="R238" s="58"/>
+      <c r="Q238" s="66"/>
+      <c r="R238" s="68"/>
     </row>
     <row r="239" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="17"/>
-      <c r="B239" s="55"/>
-      <c r="C239" s="57"/>
+      <c r="B239" s="66"/>
+      <c r="C239" s="64"/>
       <c r="D239" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9788,13 +9854,13 @@
       <c r="N239" s="11"/>
       <c r="O239" s="11"/>
       <c r="P239" s="11"/>
-      <c r="Q239" s="55"/>
-      <c r="R239" s="58"/>
+      <c r="Q239" s="66"/>
+      <c r="R239" s="68"/>
     </row>
     <row r="240" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="17"/>
-      <c r="B240" s="55"/>
-      <c r="C240" s="57"/>
+      <c r="B240" s="66"/>
+      <c r="C240" s="64"/>
       <c r="D240" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9823,13 +9889,13 @@
       <c r="N240" s="11"/>
       <c r="O240" s="11"/>
       <c r="P240" s="11"/>
-      <c r="Q240" s="55"/>
-      <c r="R240" s="58"/>
+      <c r="Q240" s="66"/>
+      <c r="R240" s="68"/>
     </row>
     <row r="241" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="17"/>
-      <c r="B241" s="55"/>
-      <c r="C241" s="57"/>
+      <c r="B241" s="66"/>
+      <c r="C241" s="64"/>
       <c r="D241" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9858,13 +9924,13 @@
       <c r="N241" s="11"/>
       <c r="O241" s="11"/>
       <c r="P241" s="11"/>
-      <c r="Q241" s="55"/>
-      <c r="R241" s="58"/>
+      <c r="Q241" s="66"/>
+      <c r="R241" s="68"/>
     </row>
     <row r="242" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="17"/>
-      <c r="B242" s="55"/>
-      <c r="C242" s="57"/>
+      <c r="B242" s="66"/>
+      <c r="C242" s="64"/>
       <c r="D242" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9893,13 +9959,13 @@
       <c r="N242" s="11"/>
       <c r="O242" s="11"/>
       <c r="P242" s="11"/>
-      <c r="Q242" s="55"/>
-      <c r="R242" s="58"/>
+      <c r="Q242" s="66"/>
+      <c r="R242" s="68"/>
     </row>
     <row r="243" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="17"/>
-      <c r="B243" s="55"/>
-      <c r="C243" s="57"/>
+      <c r="B243" s="66"/>
+      <c r="C243" s="64"/>
       <c r="D243" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9928,13 +9994,13 @@
       <c r="N243" s="11"/>
       <c r="O243" s="11"/>
       <c r="P243" s="11"/>
-      <c r="Q243" s="55"/>
-      <c r="R243" s="58"/>
+      <c r="Q243" s="66"/>
+      <c r="R243" s="68"/>
     </row>
     <row r="244" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="17"/>
-      <c r="B244" s="55"/>
-      <c r="C244" s="57"/>
+      <c r="B244" s="66"/>
+      <c r="C244" s="64"/>
       <c r="D244" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9963,13 +10029,13 @@
       <c r="N244" s="11"/>
       <c r="O244" s="11"/>
       <c r="P244" s="11"/>
-      <c r="Q244" s="55"/>
-      <c r="R244" s="58"/>
+      <c r="Q244" s="66"/>
+      <c r="R244" s="68"/>
     </row>
     <row r="245" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="17"/>
-      <c r="B245" s="55"/>
-      <c r="C245" s="57"/>
+      <c r="B245" s="66"/>
+      <c r="C245" s="64"/>
       <c r="D245" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -9998,13 +10064,13 @@
       <c r="N245" s="11"/>
       <c r="O245" s="11"/>
       <c r="P245" s="11"/>
-      <c r="Q245" s="55"/>
-      <c r="R245" s="58"/>
+      <c r="Q245" s="66"/>
+      <c r="R245" s="68"/>
     </row>
     <row r="246" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="17"/>
-      <c r="B246" s="55"/>
-      <c r="C246" s="57"/>
+      <c r="B246" s="66"/>
+      <c r="C246" s="64"/>
       <c r="D246" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10033,13 +10099,13 @@
       <c r="N246" s="11"/>
       <c r="O246" s="11"/>
       <c r="P246" s="11"/>
-      <c r="Q246" s="55"/>
-      <c r="R246" s="58"/>
+      <c r="Q246" s="66"/>
+      <c r="R246" s="68"/>
     </row>
     <row r="247" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="17"/>
-      <c r="B247" s="56"/>
-      <c r="C247" s="57"/>
+      <c r="B247" s="67"/>
+      <c r="C247" s="64"/>
       <c r="D247" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10068,13 +10134,13 @@
       <c r="N247" s="11"/>
       <c r="O247" s="11"/>
       <c r="P247" s="11"/>
-      <c r="Q247" s="56"/>
-      <c r="R247" s="58"/>
+      <c r="Q247" s="67"/>
+      <c r="R247" s="68"/>
     </row>
     <row r="248" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="17"/>
-      <c r="B248" s="54"/>
-      <c r="C248" s="57"/>
+      <c r="B248" s="65"/>
+      <c r="C248" s="64"/>
       <c r="D248" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10103,13 +10169,13 @@
       <c r="N248" s="11"/>
       <c r="O248" s="11"/>
       <c r="P248" s="11"/>
-      <c r="Q248" s="54"/>
-      <c r="R248" s="58"/>
+      <c r="Q248" s="65"/>
+      <c r="R248" s="68"/>
     </row>
     <row r="249" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="17"/>
-      <c r="B249" s="55"/>
-      <c r="C249" s="57"/>
+      <c r="B249" s="66"/>
+      <c r="C249" s="64"/>
       <c r="D249" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10138,13 +10204,13 @@
       <c r="N249" s="11"/>
       <c r="O249" s="11"/>
       <c r="P249" s="11"/>
-      <c r="Q249" s="55"/>
-      <c r="R249" s="58"/>
+      <c r="Q249" s="66"/>
+      <c r="R249" s="68"/>
     </row>
     <row r="250" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="17"/>
-      <c r="B250" s="55"/>
-      <c r="C250" s="57"/>
+      <c r="B250" s="66"/>
+      <c r="C250" s="64"/>
       <c r="D250" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10173,13 +10239,13 @@
       <c r="N250" s="11"/>
       <c r="O250" s="11"/>
       <c r="P250" s="11"/>
-      <c r="Q250" s="55"/>
-      <c r="R250" s="58"/>
+      <c r="Q250" s="66"/>
+      <c r="R250" s="68"/>
     </row>
     <row r="251" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="17"/>
-      <c r="B251" s="55"/>
-      <c r="C251" s="57"/>
+      <c r="B251" s="66"/>
+      <c r="C251" s="64"/>
       <c r="D251" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10208,13 +10274,13 @@
       <c r="N251" s="11"/>
       <c r="O251" s="11"/>
       <c r="P251" s="11"/>
-      <c r="Q251" s="55"/>
-      <c r="R251" s="58"/>
+      <c r="Q251" s="66"/>
+      <c r="R251" s="68"/>
     </row>
     <row r="252" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="17"/>
-      <c r="B252" s="55"/>
-      <c r="C252" s="57"/>
+      <c r="B252" s="66"/>
+      <c r="C252" s="64"/>
       <c r="D252" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10243,13 +10309,13 @@
       <c r="N252" s="11"/>
       <c r="O252" s="11"/>
       <c r="P252" s="11"/>
-      <c r="Q252" s="55"/>
-      <c r="R252" s="58"/>
+      <c r="Q252" s="66"/>
+      <c r="R252" s="68"/>
     </row>
     <row r="253" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="17"/>
-      <c r="B253" s="55"/>
-      <c r="C253" s="57"/>
+      <c r="B253" s="66"/>
+      <c r="C253" s="64"/>
       <c r="D253" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10278,13 +10344,13 @@
       <c r="N253" s="11"/>
       <c r="O253" s="11"/>
       <c r="P253" s="11"/>
-      <c r="Q253" s="55"/>
-      <c r="R253" s="58"/>
+      <c r="Q253" s="66"/>
+      <c r="R253" s="68"/>
     </row>
     <row r="254" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="17"/>
-      <c r="B254" s="55"/>
-      <c r="C254" s="57"/>
+      <c r="B254" s="66"/>
+      <c r="C254" s="64"/>
       <c r="D254" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10313,13 +10379,13 @@
       <c r="N254" s="11"/>
       <c r="O254" s="11"/>
       <c r="P254" s="11"/>
-      <c r="Q254" s="55"/>
-      <c r="R254" s="58"/>
+      <c r="Q254" s="66"/>
+      <c r="R254" s="68"/>
     </row>
     <row r="255" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="17"/>
-      <c r="B255" s="55"/>
-      <c r="C255" s="57"/>
+      <c r="B255" s="66"/>
+      <c r="C255" s="64"/>
       <c r="D255" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10348,13 +10414,13 @@
       <c r="N255" s="11"/>
       <c r="O255" s="11"/>
       <c r="P255" s="11"/>
-      <c r="Q255" s="55"/>
-      <c r="R255" s="58"/>
+      <c r="Q255" s="66"/>
+      <c r="R255" s="68"/>
     </row>
     <row r="256" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="17"/>
-      <c r="B256" s="55"/>
-      <c r="C256" s="57"/>
+      <c r="B256" s="66"/>
+      <c r="C256" s="64"/>
       <c r="D256" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10383,13 +10449,13 @@
       <c r="N256" s="11"/>
       <c r="O256" s="11"/>
       <c r="P256" s="11"/>
-      <c r="Q256" s="55"/>
-      <c r="R256" s="58"/>
+      <c r="Q256" s="66"/>
+      <c r="R256" s="68"/>
     </row>
     <row r="257" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="17"/>
-      <c r="B257" s="55"/>
-      <c r="C257" s="57"/>
+      <c r="B257" s="66"/>
+      <c r="C257" s="64"/>
       <c r="D257" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10418,13 +10484,13 @@
       <c r="N257" s="11"/>
       <c r="O257" s="11"/>
       <c r="P257" s="11"/>
-      <c r="Q257" s="55"/>
-      <c r="R257" s="58"/>
+      <c r="Q257" s="66"/>
+      <c r="R257" s="68"/>
     </row>
     <row r="258" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="17"/>
-      <c r="B258" s="55"/>
-      <c r="C258" s="57"/>
+      <c r="B258" s="66"/>
+      <c r="C258" s="64"/>
       <c r="D258" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10453,13 +10519,13 @@
       <c r="N258" s="11"/>
       <c r="O258" s="11"/>
       <c r="P258" s="11"/>
-      <c r="Q258" s="55"/>
-      <c r="R258" s="58"/>
+      <c r="Q258" s="66"/>
+      <c r="R258" s="68"/>
     </row>
     <row r="259" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="17"/>
-      <c r="B259" s="55"/>
-      <c r="C259" s="57"/>
+      <c r="B259" s="66"/>
+      <c r="C259" s="64"/>
       <c r="D259" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10488,13 +10554,13 @@
       <c r="N259" s="11"/>
       <c r="O259" s="11"/>
       <c r="P259" s="11"/>
-      <c r="Q259" s="55"/>
-      <c r="R259" s="58"/>
+      <c r="Q259" s="66"/>
+      <c r="R259" s="68"/>
     </row>
     <row r="260" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="17"/>
-      <c r="B260" s="55"/>
-      <c r="C260" s="57"/>
+      <c r="B260" s="66"/>
+      <c r="C260" s="64"/>
       <c r="D260" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10523,13 +10589,13 @@
       <c r="N260" s="11"/>
       <c r="O260" s="11"/>
       <c r="P260" s="11"/>
-      <c r="Q260" s="55"/>
-      <c r="R260" s="58"/>
+      <c r="Q260" s="66"/>
+      <c r="R260" s="68"/>
     </row>
     <row r="261" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="17"/>
-      <c r="B261" s="55"/>
-      <c r="C261" s="57"/>
+      <c r="B261" s="66"/>
+      <c r="C261" s="64"/>
       <c r="D261" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10558,13 +10624,13 @@
       <c r="N261" s="11"/>
       <c r="O261" s="11"/>
       <c r="P261" s="11"/>
-      <c r="Q261" s="55"/>
-      <c r="R261" s="58"/>
+      <c r="Q261" s="66"/>
+      <c r="R261" s="68"/>
     </row>
     <row r="262" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="17"/>
-      <c r="B262" s="56"/>
-      <c r="C262" s="57"/>
+      <c r="B262" s="67"/>
+      <c r="C262" s="64"/>
       <c r="D262" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10593,13 +10659,13 @@
       <c r="N262" s="40"/>
       <c r="O262" s="40"/>
       <c r="P262" s="40"/>
-      <c r="Q262" s="56"/>
-      <c r="R262" s="58"/>
+      <c r="Q262" s="67"/>
+      <c r="R262" s="68"/>
     </row>
     <row r="263" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="17"/>
-      <c r="B263" s="54"/>
-      <c r="C263" s="57"/>
+      <c r="B263" s="65"/>
+      <c r="C263" s="64"/>
       <c r="D263" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10628,13 +10694,13 @@
       <c r="N263" s="40"/>
       <c r="O263" s="40"/>
       <c r="P263" s="40"/>
-      <c r="Q263" s="54"/>
-      <c r="R263" s="58"/>
+      <c r="Q263" s="65"/>
+      <c r="R263" s="68"/>
     </row>
     <row r="264" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="17"/>
-      <c r="B264" s="55"/>
-      <c r="C264" s="57"/>
+      <c r="B264" s="66"/>
+      <c r="C264" s="64"/>
       <c r="D264" s="5" t="str">
         <f t="shared" si="12"/>
         <v>-</v>
@@ -10663,13 +10729,13 @@
       <c r="N264" s="40"/>
       <c r="O264" s="40"/>
       <c r="P264" s="40"/>
-      <c r="Q264" s="55"/>
-      <c r="R264" s="58"/>
+      <c r="Q264" s="66"/>
+      <c r="R264" s="68"/>
     </row>
     <row r="265" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="17"/>
-      <c r="B265" s="55"/>
-      <c r="C265" s="57"/>
+      <c r="B265" s="66"/>
+      <c r="C265" s="64"/>
       <c r="D265" s="5" t="str">
         <f t="shared" ref="D265:D277" si="16">IF(LEN(E265)&gt;5,IF(LEN(K265&amp;L265&amp;M265)&gt;=1,"OK","Check"),"-")</f>
         <v>-</v>
@@ -10698,13 +10764,13 @@
       <c r="N265" s="40"/>
       <c r="O265" s="40"/>
       <c r="P265" s="40"/>
-      <c r="Q265" s="55"/>
-      <c r="R265" s="58"/>
+      <c r="Q265" s="66"/>
+      <c r="R265" s="68"/>
     </row>
     <row r="266" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="17"/>
-      <c r="B266" s="55"/>
-      <c r="C266" s="57"/>
+      <c r="B266" s="66"/>
+      <c r="C266" s="64"/>
       <c r="D266" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10733,13 +10799,13 @@
       <c r="N266" s="40"/>
       <c r="O266" s="40"/>
       <c r="P266" s="40"/>
-      <c r="Q266" s="55"/>
-      <c r="R266" s="58"/>
+      <c r="Q266" s="66"/>
+      <c r="R266" s="68"/>
     </row>
     <row r="267" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A267" s="17"/>
-      <c r="B267" s="55"/>
-      <c r="C267" s="57"/>
+      <c r="B267" s="66"/>
+      <c r="C267" s="64"/>
       <c r="D267" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10768,13 +10834,13 @@
       <c r="N267" s="40"/>
       <c r="O267" s="40"/>
       <c r="P267" s="40"/>
-      <c r="Q267" s="55"/>
-      <c r="R267" s="58"/>
+      <c r="Q267" s="66"/>
+      <c r="R267" s="68"/>
     </row>
     <row r="268" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A268" s="17"/>
-      <c r="B268" s="55"/>
-      <c r="C268" s="57"/>
+      <c r="B268" s="66"/>
+      <c r="C268" s="64"/>
       <c r="D268" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10803,13 +10869,13 @@
       <c r="N268" s="40"/>
       <c r="O268" s="40"/>
       <c r="P268" s="40"/>
-      <c r="Q268" s="55"/>
-      <c r="R268" s="58"/>
+      <c r="Q268" s="66"/>
+      <c r="R268" s="68"/>
     </row>
     <row r="269" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A269" s="17"/>
-      <c r="B269" s="55"/>
-      <c r="C269" s="57"/>
+      <c r="B269" s="66"/>
+      <c r="C269" s="64"/>
       <c r="D269" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10838,13 +10904,13 @@
       <c r="N269" s="40"/>
       <c r="O269" s="40"/>
       <c r="P269" s="40"/>
-      <c r="Q269" s="55"/>
-      <c r="R269" s="58"/>
+      <c r="Q269" s="66"/>
+      <c r="R269" s="68"/>
     </row>
     <row r="270" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A270" s="17"/>
-      <c r="B270" s="55"/>
-      <c r="C270" s="57"/>
+      <c r="B270" s="66"/>
+      <c r="C270" s="64"/>
       <c r="D270" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10872,13 +10938,13 @@
       </c>
       <c r="N270" s="40"/>
       <c r="P270" s="40"/>
-      <c r="Q270" s="55"/>
-      <c r="R270" s="58"/>
+      <c r="Q270" s="66"/>
+      <c r="R270" s="68"/>
     </row>
     <row r="271" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A271" s="17"/>
-      <c r="B271" s="55"/>
-      <c r="C271" s="57"/>
+      <c r="B271" s="66"/>
+      <c r="C271" s="64"/>
       <c r="D271" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10907,13 +10973,13 @@
       <c r="N271" s="40"/>
       <c r="O271" s="40"/>
       <c r="P271" s="40"/>
-      <c r="Q271" s="55"/>
-      <c r="R271" s="58"/>
+      <c r="Q271" s="66"/>
+      <c r="R271" s="68"/>
     </row>
     <row r="272" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A272" s="17"/>
-      <c r="B272" s="55"/>
-      <c r="C272" s="57"/>
+      <c r="B272" s="66"/>
+      <c r="C272" s="64"/>
       <c r="D272" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10942,13 +11008,13 @@
       <c r="N272" s="40"/>
       <c r="O272" s="40"/>
       <c r="P272" s="40"/>
-      <c r="Q272" s="55"/>
-      <c r="R272" s="58"/>
+      <c r="Q272" s="66"/>
+      <c r="R272" s="68"/>
     </row>
     <row r="273" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A273" s="17"/>
-      <c r="B273" s="55"/>
-      <c r="C273" s="57"/>
+      <c r="B273" s="66"/>
+      <c r="C273" s="64"/>
       <c r="D273" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -10977,13 +11043,13 @@
       <c r="N273" s="40"/>
       <c r="O273" s="40"/>
       <c r="P273" s="40"/>
-      <c r="Q273" s="55"/>
-      <c r="R273" s="58"/>
+      <c r="Q273" s="66"/>
+      <c r="R273" s="68"/>
     </row>
     <row r="274" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A274" s="17"/>
-      <c r="B274" s="55"/>
-      <c r="C274" s="57"/>
+      <c r="B274" s="66"/>
+      <c r="C274" s="64"/>
       <c r="D274" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11012,13 +11078,13 @@
       <c r="N274" s="40"/>
       <c r="O274" s="40"/>
       <c r="P274" s="40"/>
-      <c r="Q274" s="55"/>
-      <c r="R274" s="58"/>
+      <c r="Q274" s="66"/>
+      <c r="R274" s="68"/>
     </row>
     <row r="275" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="17"/>
-      <c r="B275" s="55"/>
-      <c r="C275" s="57"/>
+      <c r="B275" s="66"/>
+      <c r="C275" s="64"/>
       <c r="D275" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11047,13 +11113,13 @@
       <c r="N275" s="40"/>
       <c r="O275" s="40"/>
       <c r="P275" s="40"/>
-      <c r="Q275" s="55"/>
-      <c r="R275" s="58"/>
+      <c r="Q275" s="66"/>
+      <c r="R275" s="68"/>
     </row>
     <row r="276" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="17"/>
-      <c r="B276" s="55"/>
-      <c r="C276" s="57"/>
+      <c r="B276" s="66"/>
+      <c r="C276" s="64"/>
       <c r="D276" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11082,13 +11148,13 @@
       <c r="N276" s="40"/>
       <c r="O276" s="40"/>
       <c r="P276" s="40"/>
-      <c r="Q276" s="55"/>
-      <c r="R276" s="58"/>
+      <c r="Q276" s="66"/>
+      <c r="R276" s="68"/>
     </row>
     <row r="277" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="48"/>
-      <c r="B277" s="56"/>
-      <c r="C277" s="57"/>
+      <c r="B277" s="67"/>
+      <c r="C277" s="64"/>
       <c r="D277" s="5" t="str">
         <f t="shared" si="16"/>
         <v>-</v>
@@ -11117,8 +11183,8 @@
       <c r="N277" s="40"/>
       <c r="O277" s="40"/>
       <c r="P277" s="40"/>
-      <c r="Q277" s="56"/>
-      <c r="R277" s="58"/>
+      <c r="Q277" s="67"/>
+      <c r="R277" s="68"/>
     </row>
     <row r="278" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G278" s="49"/>
@@ -11136,7 +11202,7 @@
     </row>
     <row r="279" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B279" s="52"/>
       <c r="C279" s="52"/>
@@ -11178,6 +11244,50 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="60">
+    <mergeCell ref="B248:B262"/>
+    <mergeCell ref="C248:C262"/>
+    <mergeCell ref="Q248:Q262"/>
+    <mergeCell ref="B263:B277"/>
+    <mergeCell ref="C263:C277"/>
+    <mergeCell ref="Q263:Q277"/>
+    <mergeCell ref="B218:B232"/>
+    <mergeCell ref="C218:C232"/>
+    <mergeCell ref="Q218:Q232"/>
+    <mergeCell ref="B233:B247"/>
+    <mergeCell ref="C233:C247"/>
+    <mergeCell ref="Q233:Q247"/>
+    <mergeCell ref="B188:B202"/>
+    <mergeCell ref="C188:C202"/>
+    <mergeCell ref="Q188:Q202"/>
+    <mergeCell ref="B203:B217"/>
+    <mergeCell ref="C203:C217"/>
+    <mergeCell ref="Q203:Q217"/>
+    <mergeCell ref="R97:R277"/>
+    <mergeCell ref="B112:B126"/>
+    <mergeCell ref="C112:C126"/>
+    <mergeCell ref="Q112:Q126"/>
+    <mergeCell ref="B127:B142"/>
+    <mergeCell ref="C127:C142"/>
+    <mergeCell ref="Q127:Q142"/>
+    <mergeCell ref="B143:B157"/>
+    <mergeCell ref="C143:C157"/>
+    <mergeCell ref="Q143:Q157"/>
+    <mergeCell ref="B158:B172"/>
+    <mergeCell ref="C158:C172"/>
+    <mergeCell ref="Q158:Q172"/>
+    <mergeCell ref="B173:B187"/>
+    <mergeCell ref="C173:C187"/>
+    <mergeCell ref="Q173:Q187"/>
+    <mergeCell ref="C80:C96"/>
+    <mergeCell ref="Q80:Q96"/>
+    <mergeCell ref="B97:B111"/>
+    <mergeCell ref="C97:C111"/>
+    <mergeCell ref="Q97:Q111"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="Q4:Q18"/>
     <mergeCell ref="R4:R96"/>
     <mergeCell ref="A19:A64"/>
     <mergeCell ref="B19:B33"/>
@@ -11194,145 +11304,101 @@
     <mergeCell ref="C65:C79"/>
     <mergeCell ref="Q65:Q79"/>
     <mergeCell ref="B80:B96"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C18"/>
-    <mergeCell ref="Q4:Q18"/>
-    <mergeCell ref="C80:C96"/>
-    <mergeCell ref="Q80:Q96"/>
-    <mergeCell ref="B97:B111"/>
-    <mergeCell ref="C97:C111"/>
-    <mergeCell ref="Q97:Q111"/>
-    <mergeCell ref="R97:R277"/>
-    <mergeCell ref="B112:B126"/>
-    <mergeCell ref="C112:C126"/>
-    <mergeCell ref="Q112:Q126"/>
-    <mergeCell ref="B127:B142"/>
-    <mergeCell ref="C127:C142"/>
-    <mergeCell ref="Q127:Q142"/>
-    <mergeCell ref="B143:B157"/>
-    <mergeCell ref="C143:C157"/>
-    <mergeCell ref="Q143:Q157"/>
-    <mergeCell ref="B158:B172"/>
-    <mergeCell ref="C158:C172"/>
-    <mergeCell ref="Q158:Q172"/>
-    <mergeCell ref="B173:B187"/>
-    <mergeCell ref="C173:C187"/>
-    <mergeCell ref="Q173:Q187"/>
-    <mergeCell ref="B188:B202"/>
-    <mergeCell ref="C188:C202"/>
-    <mergeCell ref="Q188:Q202"/>
-    <mergeCell ref="B203:B217"/>
-    <mergeCell ref="C203:C217"/>
-    <mergeCell ref="Q203:Q217"/>
-    <mergeCell ref="B218:B232"/>
-    <mergeCell ref="C218:C232"/>
-    <mergeCell ref="Q218:Q232"/>
-    <mergeCell ref="B233:B247"/>
-    <mergeCell ref="C233:C247"/>
-    <mergeCell ref="Q233:Q247"/>
-    <mergeCell ref="B248:B262"/>
-    <mergeCell ref="C248:C262"/>
-    <mergeCell ref="Q248:Q262"/>
-    <mergeCell ref="B263:B277"/>
-    <mergeCell ref="C263:C277"/>
-    <mergeCell ref="Q263:Q277"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J280">
-    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
       <formula>J4="N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G262">
-    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="20" stopIfTrue="1">
       <formula>G4="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="21" stopIfTrue="1">
       <formula>G4="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H157 H159:H280">
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="17" stopIfTrue="1">
       <formula>I4="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="18" stopIfTrue="1">
       <formula>I4="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="19" stopIfTrue="1">
       <formula>I4="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N271:Q280 P270:Q270 N4:Q269 N270">
-    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
       <formula>N4="FM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R278:R280">
-    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
       <formula>R278="U"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
       <formula>R278="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N271:Q280 P270:Q270 N4:Q269 N270">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
       <formula>N4="DM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N271:Q280 P270:Q270 N4:Q269 N270">
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>N4="PM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N271:Q280 P270:Q270 N4:Q269 N270">
-    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
       <formula>N4="LM"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:R277">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="NA">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",R4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",R4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
       <formula>LEFT(R4,LEN("S"))="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D33 D36:D48 D51:D277">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G263:G277">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
       <formula>G263="Aff"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
       <formula>G263="Doc"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>I158="I"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>I158="W"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>I158="S"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:D35">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D50">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Check">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Check">
       <formula>NOT(ISERROR(SEARCH("Check",D49)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11364,23 +11430,33 @@
     <hyperlink ref="E19" r:id="rId8"/>
     <hyperlink ref="E20" r:id="rId9"/>
     <hyperlink ref="E34" r:id="rId10"/>
-    <hyperlink ref="E35" r:id="rId11"/>
+    <hyperlink ref="E35" r:id="rId11" display="ORG_Einframe"/>
     <hyperlink ref="E49" r:id="rId12"/>
-    <hyperlink ref="E50" r:id="rId13"/>
-    <hyperlink ref="E51" r:id="rId14"/>
-    <hyperlink ref="E52" r:id="rId15"/>
-    <hyperlink ref="E53" r:id="rId16"/>
-    <hyperlink ref="E66" r:id="rId17"/>
-    <hyperlink ref="E81" r:id="rId18"/>
-    <hyperlink ref="E82" r:id="rId19"/>
-    <hyperlink ref="E97" r:id="rId20"/>
-    <hyperlink ref="E98" r:id="rId21"/>
-    <hyperlink ref="E112" r:id="rId22"/>
-    <hyperlink ref="E127" r:id="rId23"/>
-    <hyperlink ref="E128" r:id="rId24"/>
+    <hyperlink ref="E51" r:id="rId13"/>
+    <hyperlink ref="E52" r:id="rId14"/>
+    <hyperlink ref="E53" r:id="rId15"/>
+    <hyperlink ref="E66" r:id="rId16"/>
+    <hyperlink ref="E81" r:id="rId17"/>
+    <hyperlink ref="E82" r:id="rId18"/>
+    <hyperlink ref="E97" r:id="rId19"/>
+    <hyperlink ref="E98" r:id="rId20"/>
+    <hyperlink ref="E112" r:id="rId21"/>
+    <hyperlink ref="E127" r:id="rId22"/>
+    <hyperlink ref="E128" r:id="rId23"/>
+    <hyperlink ref="E21" r:id="rId24"/>
+    <hyperlink ref="E50" r:id="rId25" display="ORG_Einframe"/>
+    <hyperlink ref="E83" r:id="rId26"/>
+    <hyperlink ref="E129" r:id="rId27"/>
+    <hyperlink ref="E130" r:id="rId28"/>
+    <hyperlink ref="E131" r:id="rId29"/>
+    <hyperlink ref="E144" r:id="rId30"/>
+    <hyperlink ref="E146" r:id="rId31"/>
+    <hyperlink ref="E147" r:id="rId32"/>
+    <hyperlink ref="E148" r:id="rId33"/>
+    <hyperlink ref="E159" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;P&amp;R&amp;A</oddHeader>
   </headerFooter>
